--- a/Lab3/data.xlsx
+++ b/Lab3/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hilton\Documents\GitHub\ECE420\Lab3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stepy\Documents\UNIVERSITY\0_Winter2023\ECE420\Lab\GitECE420\ECE420\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{336EBD0E-A5F3-4DC1-836A-00BDEE51F7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510418E3-97C0-4276-9362-A951B12F8046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="15180" windowHeight="20090" xr2:uid="{6E44FC85-38A8-4D93-B0D8-88DC4EE778F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6E44FC85-38A8-4D93-B0D8-88DC4EE778F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="24">
   <si>
     <t>matrix size</t>
   </si>
@@ -111,6 +111,9 @@
   <si>
     <t>100 threads</t>
   </si>
+  <si>
+    <t>inner_auto</t>
+  </si>
 </sst>
 </file>
 
@@ -133,7 +136,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -156,17 +159,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3059,6 +3084,1629 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Runtimes for Matrix</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Size 100 for Innerloop Parallelization</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>inner_auto</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$18:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$4,Sheet1!$H$7,Sheet1!$H$10,Sheet1!$H$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.16400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5099999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DC79-4B95-87DD-376E993E8709}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="945204384"/>
+        <c:axId val="945204800"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="945204384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="1200"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="945204800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="945204800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="1200"/>
+                  <a:t>Avg Runtime (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="945204384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t>Runtimes for Matrix of Size 100 for Outerloop Parallelization Using Various Scheduling Methods </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12876930607127152"/>
+          <c:y val="1.7058577408667772E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>dynamic</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$18:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$4,Sheet1!$D$7,Sheet1!$D$10,Sheet1!$D$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0337500340000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8331365799999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7189242799999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13481073699999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-51CC-4CC6-80D6-9E9C94A2BA60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>static</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$18:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$G$4,Sheet1!$G$7,Sheet1!$G$10,Sheet1!$G$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.3035792400000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8103258300000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4149466000000016E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11669172769999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-51CC-4CC6-80D6-9E9C94A2BA60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>runtime</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$F$4,Sheet1!$F$7,Sheet1!$F$10,Sheet1!$F$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.2991423699999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6005487700000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1772367700000025E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10813890570000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-51CC-4CC6-80D6-9E9C94A2BA60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="945204384"/>
+        <c:axId val="945204800"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="945204384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="1200"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="945204800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="945204800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="1200"/>
+                  <a:t> Avg Runtime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="1200" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="945204384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Runtimes</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> for Various Matrix Sizes and Thread Counts for Outerloop Runtime-Scheduling (main)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15545413648212095"/>
+          <c:y val="0.23360763044697958"/>
+          <c:w val="0.7314585306853576"/>
+          <c:h val="0.59494168029866501"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>size 20 matrix</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$18:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$F$3,Sheet1!$F$6,Sheet1!$F$9,Sheet1!$F$12)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.2261197299999976E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7154969500000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1031806100000023E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13835433999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A4EB-40B8-A674-05795A69229B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>size 100 matrix</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$18:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$F$4,Sheet1!$F$7,Sheet1!$F$10,Sheet1!$F$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.2991423699999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6005487700000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1772367700000025E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10813890570000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A4EB-40B8-A674-05795A69229B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>size 500 matrix</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$18:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$F$5,Sheet1!$F$8,Sheet1!$F$11,Sheet1!$F$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0074432020000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8439717600000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8241660699999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13233573910000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A4EB-40B8-A674-05795A69229B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1782575648"/>
+        <c:axId val="1778986608"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1782575648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="1400"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="1400" baseline="0"/>
+                  <a:t> of Threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1778986608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1778986608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="1200"/>
+                  <a:t>Avg</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="1200" baseline="0"/>
+                  <a:t> Runtime (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1782575648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16488280983232326"/>
+          <c:y val="0.15991174514041945"/>
+          <c:w val="0.72043327532858981"/>
+          <c:h val="5.8029464055320258E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3180,6 +4828,126 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5231,19 +6999,1528 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>601034</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>43141</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>49766</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>270244</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>324673</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>24071</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5271,16 +8548,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>17721</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>42383</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>521186</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>110419</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>299779</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>16687</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>190922</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>84723</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5307,16 +8584,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76792</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>94068</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>566649</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>121282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>358850</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>68373</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>236385</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5343,16 +8620,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>54640</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>116220</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>217925</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>184256</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>336698</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>90524</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>499983</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>158560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5372,6 +8649,116 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>165965</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>17154</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495422</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>136650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A1AC49C-4D9A-666F-2CCC-05F2DDDCD8FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76695</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>21757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>456726</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142231</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B2ED545-F200-4700-81CD-10B0BA62A208}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>637760</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>513520</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>140804</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81A444EE-392E-E6A5-BF9C-486C0FEBE4BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5677,321 +9064,978 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FA4254-8163-4429-852E-588158CEB352}">
-  <dimension ref="A2:G15"/>
+  <dimension ref="A2:H117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>20</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <f>Auto!B2</f>
         <v>7.6194334400000018E-3</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <f>Dynamic!B2</f>
         <v>1.0780474890000001E-2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>7.5099229700000001E-3</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>9.2261197299999976E-3</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>9.2667007100000059E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2">
+      <c r="H3" s="3">
+        <v>0.16300000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1">
         <v>100</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <f>Auto!C2</f>
         <v>8.9373327700000005E-3</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <f>Dynamic!C2</f>
         <v>1.0337500340000003E-2</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>1.1600720310000003E-2</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>1.2991423699999996E-2</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>9.3035792400000001E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2">
+      <c r="H4" s="3">
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1">
         <v>500</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <f>Auto!D2</f>
         <v>1.1044034290000004E-2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <f>Dynamic!D2</f>
         <v>9.9305912899999987E-3</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>8.0522370200000002E-3</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>1.0074432020000003E-2</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>1.0219333489999999E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="H5" s="3">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>20</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <f>Auto!E2</f>
         <v>1.5487904799999994E-2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <f>Dynamic!E2</f>
         <v>1.7426078399999993E-2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>1.7807178399999991E-2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>1.7154969500000006E-2</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>1.5444219199999993E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2">
+      <c r="H6" s="3">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1">
         <v>100</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <f>Auto!F2</f>
         <v>1.7778730199999995E-2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <f>Dynamic!F2</f>
         <v>1.8331365799999999E-2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>1.5848584400000004E-2</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>1.6005487700000005E-2</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>1.8103258300000001E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2">
+      <c r="H7" s="3">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1">
         <v>500</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <f>Auto!G2</f>
         <v>1.6840577400000001E-2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <f>Dynamic!G2</f>
         <v>1.8356800599999994E-2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>1.5027247100000005E-2</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>1.8439717600000002E-2</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>1.7051017199999997E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="H8" s="3">
+        <v>0.27400000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>20</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <f>Auto!H2</f>
         <v>6.4700167200000019E-2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <f>Dynamic!H2</f>
         <v>6.1557714100000001E-2</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>6.1062942099999996E-2</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>6.1031806100000023E-2</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>6.2405202199999996E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2">
+      <c r="H9" s="5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1">
         <v>100</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <f>Auto!I2</f>
         <v>7.0299785399999995E-2</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <f>Dynamic!I2</f>
         <v>5.7189242799999998E-2</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>5.6343550899999997E-2</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>6.1772367700000025E-2</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>6.4149466000000016E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2">
+      <c r="H10" s="5">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1">
         <v>500</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <f>Auto!J2</f>
         <v>6.5263523800000001E-2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <f>Dynamic!J2</f>
         <v>5.7038531600000004E-2</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>6.0407702400000034E-2</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>5.8241660699999996E-2</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>6.1480663099999958E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="H11" s="5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>20</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <f>Auto!K2</f>
         <v>0.11866088519999994</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <f>Dynamic!K2</f>
         <v>0.13216759699999994</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>0.1185329638</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>0.13835433999999999</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>0.13281177000000005</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2">
+      <c r="H12" s="3">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1">
         <v>100</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <f>Auto!K2</f>
         <v>0.11866088519999994</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <f>Dynamic!L2</f>
         <v>0.13481073699999996</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>0.13115557700000002</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>0.10813890570000001</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>0.11669172769999994</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2">
+      <c r="H13" s="3">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1">
         <v>500</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <f>Auto!M2</f>
         <v>0.13078609300000002</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <f>Dynamic!M2</f>
         <v>0.13271423199999999</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>0.13210137199999997</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>0.13233573910000002</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>0.13669702299999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
+      <c r="H14" s="3">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>50</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>100</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="H89" s="4"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="H90" s="4"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="H91" s="4"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="H92" s="4"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="H93" s="4"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="H95" s="4"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="H96" s="4"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="H97" s="4"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="H98" s="4"/>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="H100" s="4"/>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="H101" s="4"/>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="H102" s="4"/>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="H103" s="4"/>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="H104" s="4"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="H105" s="4"/>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="H106" s="4"/>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="H107" s="4"/>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="H108" s="4"/>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="H109" s="4"/>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="H110" s="4"/>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="H111" s="4"/>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="H112" s="4"/>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="H113" s="4"/>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="F114" s="4"/>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="F115" s="4"/>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="F116" s="4"/>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C117" s="4"/>
+      <c r="F117" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6014,9 +10058,9 @@
       <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -6054,7 +10098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -6107,7 +10151,7 @@
         <v>0.13078609300000002</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>7.1899889999999999E-3</v>
       </c>
@@ -6145,7 +10189,7 @@
         <v>0.12965299999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>7.2448249999999999E-3</v>
       </c>
@@ -6183,7 +10227,7 @@
         <v>0.131886</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>8.9521410000000003E-3</v>
       </c>
@@ -6221,7 +10265,7 @@
         <v>0.13026499999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>8.5542199999999995E-3</v>
       </c>
@@ -6259,7 +10303,7 @@
         <v>0.1298571</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>8.4011550000000004E-3</v>
       </c>
@@ -6297,7 +10341,7 @@
         <v>0.12970499999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7.7061650000000001E-3</v>
       </c>
@@ -6335,7 +10379,7 @@
         <v>0.1203752</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>7.0850849999999996E-3</v>
       </c>
@@ -6373,7 +10417,7 @@
         <v>0.1514721</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7.93314E-3</v>
       </c>
@@ -6411,7 +10455,7 @@
         <v>0.1323578</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8.4240440000000003E-3</v>
       </c>
@@ -6449,7 +10493,7 @@
         <v>0.13345599999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>8.0900190000000004E-3</v>
       </c>
@@ -6487,7 +10531,7 @@
         <v>0.13122110000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>7.2500710000000003E-3</v>
       </c>
@@ -6525,7 +10569,7 @@
         <v>0.1306601</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>7.2939399999999996E-3</v>
       </c>
@@ -6563,7 +10607,7 @@
         <v>0.13042190000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>7.6940059999999998E-3</v>
       </c>
@@ -6601,7 +10645,7 @@
         <v>0.12832589999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>8.4640979999999998E-3</v>
       </c>
@@ -6639,7 +10683,7 @@
         <v>0.13617109999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>7.5139999999999998E-3</v>
       </c>
@@ -6677,7 +10721,7 @@
         <v>0.12529899999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>7.9410079999999994E-3</v>
       </c>
@@ -6715,7 +10759,7 @@
         <v>0.1323462</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>7.3368549999999998E-3</v>
       </c>
@@ -6753,7 +10797,7 @@
         <v>0.12912989999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>7.7691080000000003E-3</v>
       </c>
@@ -6791,7 +10835,7 @@
         <v>0.1302228</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>7.3218349999999996E-3</v>
       </c>
@@ -6829,7 +10873,7 @@
         <v>0.13265399999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>7.6501370000000004E-3</v>
       </c>
@@ -6867,7 +10911,7 @@
         <v>0.1452301</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>8.4121230000000005E-3</v>
       </c>
@@ -6905,7 +10949,7 @@
         <v>0.14508509999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>7.449865E-3</v>
       </c>
@@ -6943,7 +10987,7 @@
         <v>0.13601679999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>6.5341000000000002E-3</v>
       </c>
@@ -6981,7 +11025,7 @@
         <v>0.14047000000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>7.8990459999999998E-3</v>
       </c>
@@ -7019,7 +11063,7 @@
         <v>0.139267</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>7.8849790000000003E-3</v>
       </c>
@@ -7057,7 +11101,7 @@
         <v>0.1437619</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>7.6282019999999997E-3</v>
       </c>
@@ -7095,7 +11139,7 @@
         <v>0.14477709999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>7.5700280000000003E-3</v>
       </c>
@@ -7133,7 +11177,7 @@
         <v>0.14615010000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>8.3999629999999999E-3</v>
       </c>
@@ -7171,7 +11215,7 @@
         <v>0.14422989999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>8.5039139999999996E-3</v>
       </c>
@@ -7209,7 +11253,7 @@
         <v>0.1405129</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>7.036924E-3</v>
       </c>
@@ -7247,7 +11291,7 @@
         <v>0.13802</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>7.664204E-3</v>
       </c>
@@ -7285,7 +11329,7 @@
         <v>0.14105390000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>7.5650220000000002E-3</v>
       </c>
@@ -7323,7 +11367,7 @@
         <v>0.1489849</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>7.1208479999999999E-3</v>
       </c>
@@ -7361,7 +11405,7 @@
         <v>0.144762</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>7.539034E-3</v>
       </c>
@@ -7399,7 +11443,7 @@
         <v>0.13653209999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>8.9461799999999998E-3</v>
       </c>
@@ -7437,7 +11481,7 @@
         <v>0.14093610000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>7.3828699999999997E-3</v>
       </c>
@@ -7475,7 +11519,7 @@
         <v>0.134161</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>8.4538459999999992E-3</v>
       </c>
@@ -7513,7 +11557,7 @@
         <v>0.1347959</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>6.4580439999999996E-3</v>
       </c>
@@ -7551,7 +11595,7 @@
         <v>0.137928</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>7.172108E-3</v>
       </c>
@@ -7589,7 +11633,7 @@
         <v>0.13655400000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>6.8418979999999999E-3</v>
       </c>
@@ -7627,7 +11671,7 @@
         <v>0.13749500000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>7.1051120000000002E-3</v>
       </c>
@@ -7665,7 +11709,7 @@
         <v>0.123292</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>7.3599820000000002E-3</v>
       </c>
@@ -7703,7 +11747,7 @@
         <v>0.126775</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>8.5661409999999993E-3</v>
       </c>
@@ -7741,7 +11785,7 @@
         <v>0.12725710000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>7.6320169999999996E-3</v>
       </c>
@@ -7779,7 +11823,7 @@
         <v>0.1276631</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>6.3250060000000002E-3</v>
       </c>
@@ -7817,7 +11861,7 @@
         <v>0.1268919</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>7.9369539999999995E-3</v>
       </c>
@@ -7855,7 +11899,7 @@
         <v>0.126276</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>8.2678790000000005E-3</v>
       </c>
@@ -7893,7 +11937,7 @@
         <v>0.12675500000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>8.0220699999999992E-3</v>
       </c>
@@ -7931,7 +11975,7 @@
         <v>0.1279788</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>6.3700680000000004E-3</v>
       </c>
@@ -7969,7 +12013,7 @@
         <v>0.128751</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>7.5120930000000001E-3</v>
       </c>
@@ -8007,7 +12051,7 @@
         <v>0.12898090000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>8.4240440000000003E-3</v>
       </c>
@@ -8045,7 +12089,7 @@
         <v>0.12752910000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>7.6558590000000001E-3</v>
       </c>
@@ -8083,7 +12127,7 @@
         <v>0.127419</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>6.3622000000000001E-3</v>
       </c>
@@ -8121,7 +12165,7 @@
         <v>0.12836310000000001</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>7.171869E-3</v>
       </c>
@@ -8159,7 +12203,7 @@
         <v>0.13273190000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>7.1549420000000001E-3</v>
       </c>
@@ -8197,7 +12241,7 @@
         <v>0.123275</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>7.037878E-3</v>
       </c>
@@ -8235,7 +12279,7 @@
         <v>0.129112</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>8.3799359999999993E-3</v>
       </c>
@@ -8273,7 +12317,7 @@
         <v>0.1265249</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>8.2349780000000004E-3</v>
       </c>
@@ -8311,7 +12355,7 @@
         <v>0.125695</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>8.5670950000000003E-3</v>
       </c>
@@ -8349,7 +12393,7 @@
         <v>0.1281011</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>7.3189739999999998E-3</v>
       </c>
@@ -8387,7 +12431,7 @@
         <v>0.12767390000000001</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>7.9920289999999995E-3</v>
       </c>
@@ -8425,7 +12469,7 @@
         <v>0.1287131</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>7.019043E-3</v>
       </c>
@@ -8463,7 +12507,7 @@
         <v>0.1294911</v>
       </c>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>7.1599480000000002E-3</v>
       </c>
@@ -8501,7 +12545,7 @@
         <v>0.13137789999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>7.0347789999999997E-3</v>
       </c>
@@ -8539,7 +12583,7 @@
         <v>0.13130310000000001</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>7.4989799999999997E-3</v>
       </c>
@@ -8577,7 +12621,7 @@
         <v>0.127912</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>7.2619920000000001E-3</v>
       </c>
@@ -8615,7 +12659,7 @@
         <v>0.127965</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>7.6990130000000002E-3</v>
       </c>
@@ -8653,7 +12697,7 @@
         <v>0.12662290000000001</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>7.5838570000000003E-3</v>
       </c>
@@ -8691,7 +12735,7 @@
         <v>0.12681480000000001</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>7.0550439999999999E-3</v>
       </c>
@@ -8729,7 +12773,7 @@
         <v>0.12764690000000001</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>7.107019E-3</v>
       </c>
@@ -8767,7 +12811,7 @@
         <v>0.1018279</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>7.2560309999999996E-3</v>
       </c>
@@ -8805,7 +12849,7 @@
         <v>0.13171389999999999</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>7.5211519999999997E-3</v>
       </c>
@@ -8843,7 +12887,7 @@
         <v>0.1188099</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>7.5590609999999997E-3</v>
       </c>
@@ -8881,7 +12925,7 @@
         <v>0.12692999999999999</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>7.4481959999999998E-3</v>
       </c>
@@ -8919,7 +12963,7 @@
         <v>0.1247761</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>8.2201960000000008E-3</v>
       </c>
@@ -8957,7 +13001,7 @@
         <v>0.125668</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>8.1601139999999996E-3</v>
       </c>
@@ -8995,7 +13039,7 @@
         <v>0.129832</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>7.7230930000000003E-3</v>
       </c>
@@ -9033,7 +13077,7 @@
         <v>0.13050990000000001</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>7.5728890000000002E-3</v>
       </c>
@@ -9071,7 +13115,7 @@
         <v>0.12430620000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>7.3189739999999998E-3</v>
       </c>
@@ -9109,7 +13153,7 @@
         <v>0.12787599999999999</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>7.2391030000000002E-3</v>
       </c>
@@ -9147,7 +13191,7 @@
         <v>0.1240149</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>7.0440770000000002E-3</v>
       </c>
@@ -9185,7 +13229,7 @@
         <v>0.1291602</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>7.0111749999999997E-3</v>
       </c>
@@ -9223,7 +13267,7 @@
         <v>0.12762709999999999</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>7.0860389999999997E-3</v>
       </c>
@@ -9261,7 +13305,7 @@
         <v>0.1288579</v>
       </c>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>7.172108E-3</v>
       </c>
@@ -9299,7 +13343,7 @@
         <v>0.125663</v>
       </c>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>7.107019E-3</v>
       </c>
@@ -9337,7 +13381,7 @@
         <v>0.12798499999999999</v>
       </c>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>7.6169970000000004E-3</v>
       </c>
@@ -9375,7 +13419,7 @@
         <v>0.12702579999999999</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>7.1659089999999998E-3</v>
       </c>
@@ -9413,7 +13457,7 @@
         <v>0.1271031</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>7.2240830000000001E-3</v>
       </c>
@@ -9451,7 +13495,7 @@
         <v>0.12973190000000001</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>7.9109669999999997E-3</v>
       </c>
@@ -9489,7 +13533,7 @@
         <v>0.12679409999999999</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>7.0760249999999997E-3</v>
       </c>
@@ -9527,7 +13571,7 @@
         <v>0.1218159</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>8.9218619999999992E-3</v>
       </c>
@@ -9565,7 +13609,7 @@
         <v>0.126359</v>
       </c>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>7.2519780000000001E-3</v>
       </c>
@@ -9603,7 +13647,7 @@
         <v>0.12133099999999999</v>
       </c>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>8.5887910000000001E-3</v>
       </c>
@@ -9641,7 +13685,7 @@
         <v>0.124959</v>
       </c>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>8.1949229999999998E-3</v>
       </c>
@@ -9679,7 +13723,7 @@
         <v>0.1272469</v>
       </c>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>8.8160040000000005E-3</v>
       </c>
@@ -9717,7 +13761,7 @@
         <v>0.1264989</v>
       </c>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>8.0909729999999996E-3</v>
       </c>
@@ -9755,7 +13799,7 @@
         <v>0.123735</v>
       </c>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>7.1570870000000003E-3</v>
       </c>
@@ -9793,7 +13837,7 @@
         <v>0.12376</v>
       </c>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>8.5048680000000005E-3</v>
       </c>
@@ -9831,7 +13875,7 @@
         <v>0.14027500000000001</v>
       </c>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>7.1988110000000003E-3</v>
       </c>
@@ -9869,7 +13913,7 @@
         <v>0.13251499999999999</v>
       </c>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>7.6889990000000002E-3</v>
       </c>
@@ -9921,9 +13965,9 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -9961,7 +14005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -10014,7 +14058,7 @@
         <v>0.13271423199999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1.2948039999999999E-2</v>
       </c>
@@ -10052,7 +14096,7 @@
         <v>0.12607789999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1.149201E-2</v>
       </c>
@@ -10090,7 +14134,7 @@
         <v>0.127862</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1.28839E-2</v>
       </c>
@@ -10128,7 +14172,7 @@
         <v>0.130769</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1.152682E-2</v>
       </c>
@@ -10166,7 +14210,7 @@
         <v>0.1142251</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1.1657000000000001E-2</v>
       </c>
@@ -10204,7 +14248,7 @@
         <v>0.13186500000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1.2490029999999999E-2</v>
       </c>
@@ -10242,7 +14286,7 @@
         <v>0.12895699999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1.219893E-2</v>
       </c>
@@ -10280,7 +14324,7 @@
         <v>0.15134310000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1.309395E-2</v>
       </c>
@@ -10318,7 +14362,7 @@
         <v>0.13142699999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1.059818E-2</v>
       </c>
@@ -10356,7 +14400,7 @@
         <v>0.13252710000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1.0324949999999999E-2</v>
       </c>
@@ -10394,7 +14438,7 @@
         <v>0.1299651</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>9.7401139999999994E-3</v>
       </c>
@@ -10432,7 +14476,7 @@
         <v>0.13614490000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>9.1209410000000005E-3</v>
       </c>
@@ -10470,7 +14514,7 @@
         <v>0.132741</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>8.3880420000000001E-3</v>
       </c>
@@ -10508,7 +14552,7 @@
         <v>0.12853500000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>8.6650849999999995E-3</v>
       </c>
@@ -10546,7 +14590,7 @@
         <v>0.13581679999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>8.7280269999999993E-3</v>
       </c>
@@ -10584,7 +14628,7 @@
         <v>0.136435</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>9.0899469999999993E-3</v>
       </c>
@@ -10622,7 +14666,7 @@
         <v>0.1266949</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>8.4609990000000003E-3</v>
       </c>
@@ -10660,7 +14704,7 @@
         <v>0.12536410000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>9.4480510000000007E-3</v>
       </c>
@@ -10698,7 +14742,7 @@
         <v>0.1293571</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>9.8378660000000007E-3</v>
       </c>
@@ -10736,7 +14780,7 @@
         <v>0.12984989999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>8.8081359999999994E-3</v>
       </c>
@@ -10774,7 +14818,7 @@
         <v>0.13317580000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>8.8090900000000003E-3</v>
       </c>
@@ -10812,7 +14856,7 @@
         <v>0.12709899999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>8.5730549999999996E-3</v>
       </c>
@@ -10850,7 +14894,7 @@
         <v>0.12989310000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>8.8169570000000003E-3</v>
       </c>
@@ -10888,7 +14932,7 @@
         <v>0.13010099999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>9.2010500000000005E-3</v>
       </c>
@@ -10926,7 +14970,7 @@
         <v>0.13298489999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>8.6369510000000004E-3</v>
       </c>
@@ -10964,7 +15008,7 @@
         <v>0.15155389999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>9.8819730000000005E-3</v>
       </c>
@@ -11002,7 +15046,7 @@
         <v>0.14167689999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>9.8271369999999997E-3</v>
       </c>
@@ -11040,7 +15084,7 @@
         <v>0.13095000000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>8.8779930000000007E-3</v>
       </c>
@@ -11078,7 +15122,7 @@
         <v>0.14160590000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>9.7458360000000008E-3</v>
       </c>
@@ -11116,7 +15160,7 @@
         <v>0.13917209999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>9.0270039999999999E-3</v>
       </c>
@@ -11154,7 +15198,7 @@
         <v>0.138402</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>9.5400810000000006E-3</v>
       </c>
@@ -11192,7 +15236,7 @@
         <v>0.14217109999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>9.4850060000000007E-3</v>
       </c>
@@ -11230,7 +15274,7 @@
         <v>0.13961100000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>9.5560550000000008E-3</v>
       </c>
@@ -11268,7 +15312,7 @@
         <v>0.133853</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>1.0648970000000001E-2</v>
       </c>
@@ -11306,7 +15350,7 @@
         <v>0.13306000000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>7.2898859999999998E-3</v>
       </c>
@@ -11344,7 +15388,7 @@
         <v>0.13611699999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>8.8059899999999997E-3</v>
       </c>
@@ -11382,7 +15426,7 @@
         <v>0.1344979</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>8.5628030000000008E-3</v>
       </c>
@@ -11420,7 +15464,7 @@
         <v>0.13353989999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>1.03569E-2</v>
       </c>
@@ -11458,7 +15502,7 @@
         <v>0.1357131</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>1.009202E-2</v>
       </c>
@@ -11496,7 +15540,7 @@
         <v>0.133106</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>1.024508E-2</v>
       </c>
@@ -11534,7 +15578,7 @@
         <v>0.1355941</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>1.0316850000000001E-2</v>
       </c>
@@ -11572,7 +15616,7 @@
         <v>0.13891390000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>9.6220969999999996E-3</v>
       </c>
@@ -11610,7 +15654,7 @@
         <v>0.13478680000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>1.008701E-2</v>
       </c>
@@ -11648,7 +15692,7 @@
         <v>0.13292809999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>1.0540010000000001E-2</v>
       </c>
@@ -11686,7 +15730,7 @@
         <v>0.136157</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>1.0174040000000001E-2</v>
       </c>
@@ -11724,7 +15768,7 @@
         <v>0.1387951</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>9.8519330000000002E-3</v>
       </c>
@@ -11762,7 +15806,7 @@
         <v>0.13523479999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>9.5169539999999993E-3</v>
       </c>
@@ -11800,7 +15844,7 @@
         <v>0.134295</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>9.788036E-3</v>
       </c>
@@ -11838,7 +15882,7 @@
         <v>0.13222310000000001</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>9.9749569999999996E-3</v>
       </c>
@@ -11876,7 +15920,7 @@
         <v>0.1354158</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>9.8450180000000005E-3</v>
       </c>
@@ -11914,7 +15958,7 @@
         <v>0.13250519999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>1.017213E-2</v>
       </c>
@@ -11952,7 +15996,7 @@
         <v>0.13533519999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>1.005793E-2</v>
       </c>
@@ -11990,7 +16034,7 @@
         <v>0.13872409999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>1.069808E-2</v>
       </c>
@@ -12028,7 +16072,7 @@
         <v>0.13556000000000001</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>7.1189399999999998E-3</v>
       </c>
@@ -12066,7 +16110,7 @@
         <v>0.13424710000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>1.006699E-2</v>
       </c>
@@ -12104,7 +16148,7 @@
         <v>0.13397220000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>1.131105E-2</v>
       </c>
@@ -12142,7 +16186,7 @@
         <v>0.13714599999999999</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>1.063299E-2</v>
       </c>
@@ -12180,7 +16224,7 @@
         <v>0.13830519999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>8.6719989999999997E-3</v>
       </c>
@@ -12218,7 +16262,7 @@
         <v>0.13335900000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>1.323509E-2</v>
       </c>
@@ -12256,7 +16300,7 @@
         <v>0.13909820000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>1.335502E-2</v>
       </c>
@@ -12294,7 +16338,7 @@
         <v>0.13637299999999999</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>1.2709140000000001E-2</v>
       </c>
@@ -12332,7 +16376,7 @@
         <v>0.13083980000000001</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>1.2676949999999999E-2</v>
       </c>
@@ -12370,7 +16414,7 @@
         <v>0.14169619999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>1.157093E-2</v>
       </c>
@@ -12408,7 +16452,7 @@
         <v>0.13559789999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>1.266289E-2</v>
       </c>
@@ -12446,7 +16490,7 @@
         <v>0.1360431</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>1.3574839999999999E-2</v>
       </c>
@@ -12484,7 +16528,7 @@
         <v>0.1334391</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>1.1726139999999999E-2</v>
       </c>
@@ -12522,7 +16566,7 @@
         <v>0.1348481</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>1.293302E-2</v>
       </c>
@@ -12560,7 +16604,7 @@
         <v>0.13595489999999999</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>1.300406E-2</v>
       </c>
@@ -12598,7 +16642,7 @@
         <v>0.13353590000000001</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>1.308608E-2</v>
       </c>
@@ -12636,7 +16680,7 @@
         <v>0.1347489</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>1.212192E-2</v>
       </c>
@@ -12674,7 +16718,7 @@
         <v>0.13967389999999999</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>1.243997E-2</v>
       </c>
@@ -12712,7 +16756,7 @@
         <v>0.13463620000000001</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>9.287834E-3</v>
       </c>
@@ -12750,7 +16794,7 @@
         <v>0.1349339</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>1.2764930000000001E-2</v>
       </c>
@@ -12788,7 +16832,7 @@
         <v>0.1357691</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>1.195097E-2</v>
       </c>
@@ -12826,7 +16870,7 @@
         <v>0.13975409999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>9.3898769999999996E-3</v>
       </c>
@@ -12864,7 +16908,7 @@
         <v>0.128967</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>1.213789E-2</v>
       </c>
@@ -12902,7 +16946,7 @@
         <v>0.13097</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>1.237106E-2</v>
       </c>
@@ -12940,7 +16984,7 @@
         <v>0.12785289999999999</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>1.2818100000000001E-2</v>
       </c>
@@ -12978,7 +17022,7 @@
         <v>0.12802820000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>8.8670250000000006E-3</v>
       </c>
@@ -13016,7 +17060,7 @@
         <v>0.126694</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>1.1378050000000001E-2</v>
       </c>
@@ -13054,7 +17098,7 @@
         <v>0.1243551</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>1.348281E-2</v>
       </c>
@@ -13092,7 +17136,7 @@
         <v>0.13353490000000001</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>1.2537960000000001E-2</v>
       </c>
@@ -13130,7 +17174,7 @@
         <v>0.13090009999999999</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>1.2181040000000001E-2</v>
       </c>
@@ -13168,7 +17212,7 @@
         <v>0.1248491</v>
       </c>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>1.344919E-2</v>
       </c>
@@ -13206,7 +17250,7 @@
         <v>0.12979099999999999</v>
       </c>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>1.2974019999999999E-2</v>
       </c>
@@ -13244,7 +17288,7 @@
         <v>0.12539700000000001</v>
       </c>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>1.2045149999999999E-2</v>
       </c>
@@ -13282,7 +17326,7 @@
         <v>0.12476520000000001</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>1.267195E-2</v>
       </c>
@@ -13320,7 +17364,7 @@
         <v>0.12576200000000001</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>1.2851949999999999E-2</v>
       </c>
@@ -13358,7 +17402,7 @@
         <v>0.1273041</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>9.7339149999999992E-3</v>
       </c>
@@ -13396,7 +17440,7 @@
         <v>0.12940289999999999</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>1.259303E-2</v>
       </c>
@@ -13434,7 +17478,7 @@
         <v>0.12586620000000001</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>1.223516E-2</v>
       </c>
@@ -13472,7 +17516,7 @@
         <v>0.12576599999999999</v>
       </c>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>9.0460780000000008E-3</v>
       </c>
@@ -13510,7 +17554,7 @@
         <v>0.127001</v>
       </c>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>1.294994E-2</v>
       </c>
@@ -13548,7 +17592,7 @@
         <v>0.1274679</v>
       </c>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>1.1862040000000001E-2</v>
       </c>
@@ -13586,7 +17630,7 @@
         <v>0.12770300000000001</v>
       </c>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>8.2340239999999995E-3</v>
       </c>
@@ -13624,7 +17668,7 @@
         <v>0.127419</v>
       </c>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>1.293802E-2</v>
       </c>
@@ -13662,7 +17706,7 @@
         <v>0.1263659</v>
       </c>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>1.215696E-2</v>
       </c>
@@ -13700,7 +17744,7 @@
         <v>0.12670400000000001</v>
       </c>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>8.7039470000000001E-3</v>
       </c>
@@ -13738,7 +17782,7 @@
         <v>0.12797310000000001</v>
       </c>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>1.265383E-2</v>
       </c>
@@ -13776,7 +17820,7 @@
         <v>0.1247959</v>
       </c>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>1.275682E-2</v>
       </c>
@@ -13827,9 +17871,9 @@
       <selection activeCell="F30" sqref="A1:M102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -13867,7 +17911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -13920,7 +17964,7 @@
         <v>0.13210137199999997</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>8.5208420000000007E-3</v>
       </c>
@@ -13958,7 +18002,7 @@
         <v>0.104548</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>8.5070130000000008E-3</v>
       </c>
@@ -13996,7 +18040,7 @@
         <v>0.1092799</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>8.5749629999999997E-3</v>
       </c>
@@ -14034,7 +18078,7 @@
         <v>0.113333</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>7.1840289999999998E-3</v>
       </c>
@@ -14072,7 +18116,7 @@
         <v>0.109973</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>7.9939369999999996E-3</v>
       </c>
@@ -14110,7 +18154,7 @@
         <v>0.1060469</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7.1878430000000002E-3</v>
       </c>
@@ -14148,7 +18192,7 @@
         <v>0.1047339</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6.7999360000000003E-3</v>
       </c>
@@ -14186,7 +18230,7 @@
         <v>0.1311109</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>6.5999029999999998E-3</v>
       </c>
@@ -14224,7 +18268,7 @@
         <v>0.13985710000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>7.251024E-3</v>
       </c>
@@ -14262,7 +18306,7 @@
         <v>0.12964890000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>6.9661139999999998E-3</v>
       </c>
@@ -14300,7 +18344,7 @@
         <v>0.13098879999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>6.7470070000000002E-3</v>
       </c>
@@ -14338,7 +18382,7 @@
         <v>0.13359499999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>6.9789889999999997E-3</v>
       </c>
@@ -14376,7 +18420,7 @@
         <v>0.13358400000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>7.3440069999999996E-3</v>
       </c>
@@ -14414,7 +18458,7 @@
         <v>0.132046</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>6.9651599999999998E-3</v>
       </c>
@@ -14452,7 +18496,7 @@
         <v>0.13293289999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>6.7601199999999997E-3</v>
       </c>
@@ -14490,7 +18534,7 @@
         <v>0.13073609999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>7.5929159999999999E-3</v>
       </c>
@@ -14528,7 +18572,7 @@
         <v>0.1306689</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>6.5300460000000003E-3</v>
       </c>
@@ -14566,7 +18610,7 @@
         <v>0.127774</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>6.5689090000000004E-3</v>
       </c>
@@ -14604,7 +18648,7 @@
         <v>0.13337209999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>7.1830749999999997E-3</v>
       </c>
@@ -14642,7 +18686,7 @@
         <v>0.1337111</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>7.4179169999999996E-3</v>
       </c>
@@ -14680,7 +18724,7 @@
         <v>0.1341541</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>7.496834E-3</v>
       </c>
@@ -14718,7 +18762,7 @@
         <v>0.13391110000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>6.8368910000000003E-3</v>
       </c>
@@ -14756,7 +18800,7 @@
         <v>0.1330829</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>7.2569849999999997E-3</v>
       </c>
@@ -14794,7 +18838,7 @@
         <v>0.13093089999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>7.0779320000000003E-3</v>
       </c>
@@ -14832,7 +18876,7 @@
         <v>0.12887879999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>7.107019E-3</v>
       </c>
@@ -14870,7 +18914,7 @@
         <v>0.14030690000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>7.5881480000000003E-3</v>
       </c>
@@ -14908,7 +18952,7 @@
         <v>0.13697409999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>6.5798760000000001E-3</v>
       </c>
@@ -14946,7 +18990,7 @@
         <v>0.14651610000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>6.4380169999999999E-3</v>
       </c>
@@ -14984,7 +19028,7 @@
         <v>0.16072610000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>7.3750020000000003E-3</v>
       </c>
@@ -15022,7 +19066,7 @@
         <v>0.14030390000000001</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>7.2631839999999998E-3</v>
       </c>
@@ -15060,7 +19104,7 @@
         <v>0.1450121</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>7.2929859999999996E-3</v>
       </c>
@@ -15098,7 +19142,7 @@
         <v>0.14517089999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>6.884098E-3</v>
       </c>
@@ -15136,7 +19180,7 @@
         <v>0.14430399999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>7.2069170000000002E-3</v>
       </c>
@@ -15174,7 +19218,7 @@
         <v>0.14147209999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>6.453037E-3</v>
       </c>
@@ -15212,7 +19256,7 @@
         <v>0.14376810000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>6.9839949999999998E-3</v>
       </c>
@@ -15250,7 +19294,7 @@
         <v>0.148371</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>6.5310000000000003E-3</v>
       </c>
@@ -15288,7 +19332,7 @@
         <v>0.14032700000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>7.3511599999999998E-3</v>
       </c>
@@ -15326,7 +19370,7 @@
         <v>0.14103099999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>7.2388649999999997E-3</v>
       </c>
@@ -15364,7 +19408,7 @@
         <v>0.14415</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>7.4658390000000002E-3</v>
       </c>
@@ -15402,7 +19446,7 @@
         <v>0.14111799999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>7.116079E-3</v>
       </c>
@@ -15440,7 +19484,7 @@
         <v>0.1406162</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>7.6909070000000003E-3</v>
       </c>
@@ -15478,7 +19522,7 @@
         <v>0.14020009999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>6.2530040000000004E-3</v>
       </c>
@@ -15516,7 +19560,7 @@
         <v>0.1428471</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>7.4820520000000003E-3</v>
       </c>
@@ -15554,7 +19598,7 @@
         <v>0.14011190000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>7.1399209999999996E-3</v>
       </c>
@@ -15592,7 +19636,7 @@
         <v>0.14185600000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>8.397102E-3</v>
       </c>
@@ -15630,7 +19674,7 @@
         <v>0.1412332</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>7.2388649999999997E-3</v>
       </c>
@@ -15668,7 +19712,7 @@
         <v>0.14360999999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>7.3277949999999998E-3</v>
       </c>
@@ -15706,7 +19750,7 @@
         <v>0.1424241</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>6.8669320000000001E-3</v>
       </c>
@@ -15744,7 +19788,7 @@
         <v>0.13712099999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>7.6110359999999998E-3</v>
       </c>
@@ -15782,7 +19826,7 @@
         <v>0.14136099999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>7.5731280000000002E-3</v>
       </c>
@@ -15820,7 +19864,7 @@
         <v>0.1413181</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>6.5469739999999997E-3</v>
       </c>
@@ -15858,7 +19902,7 @@
         <v>0.1409318</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>7.4620249999999997E-3</v>
       </c>
@@ -15896,7 +19940,7 @@
         <v>0.141124</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>7.6420309999999997E-3</v>
       </c>
@@ -15934,7 +19978,7 @@
         <v>0.13467290000000001</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>7.5559620000000003E-3</v>
       </c>
@@ -15972,7 +20016,7 @@
         <v>0.13420889999999999</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>7.0049760000000004E-3</v>
       </c>
@@ -16010,7 +20054,7 @@
         <v>0.13128690000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>7.6248649999999998E-3</v>
       </c>
@@ -16048,7 +20092,7 @@
         <v>0.1306341</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>7.2450639999999998E-3</v>
       </c>
@@ -16086,7 +20130,7 @@
         <v>0.13205500000000001</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>6.9560999999999998E-3</v>
       </c>
@@ -16124,7 +20168,7 @@
         <v>0.13067200000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>6.3321590000000004E-3</v>
       </c>
@@ -16162,7 +20206,7 @@
         <v>0.12850690000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>6.17981E-3</v>
       </c>
@@ -16200,7 +20244,7 @@
         <v>0.1287739</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>6.9770810000000004E-3</v>
       </c>
@@ -16238,7 +20282,7 @@
         <v>0.136683</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>7.1399209999999996E-3</v>
       </c>
@@ -16276,7 +20320,7 @@
         <v>0.13175300000000001</v>
       </c>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>6.6411500000000002E-3</v>
       </c>
@@ -16314,7 +20358,7 @@
         <v>0.13425709999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>7.7490809999999997E-3</v>
       </c>
@@ -16352,7 +20396,7 @@
         <v>0.1289699</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>6.2520500000000003E-3</v>
       </c>
@@ -16390,7 +20434,7 @@
         <v>0.13125709999999999</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>8.2409379999999997E-3</v>
       </c>
@@ -16428,7 +20472,7 @@
         <v>0.13176389999999999</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>8.6600779999999999E-3</v>
       </c>
@@ -16466,7 +20510,7 @@
         <v>0.1348171</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>9.0329650000000004E-3</v>
       </c>
@@ -16504,7 +20548,7 @@
         <v>0.13999510000000001</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>9.0408329999999999E-3</v>
       </c>
@@ -16542,7 +20586,7 @@
         <v>0.13877110000000001</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>7.0350170000000002E-3</v>
       </c>
@@ -16580,7 +20624,7 @@
         <v>0.13933400000000001</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>8.4497930000000006E-3</v>
       </c>
@@ -16618,7 +20662,7 @@
         <v>0.13744690000000001</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>7.441044E-3</v>
       </c>
@@ -16656,7 +20700,7 @@
         <v>0.14139409999999999</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>7.0910449999999998E-3</v>
       </c>
@@ -16694,7 +20738,7 @@
         <v>0.1487629</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>7.8451630000000005E-3</v>
       </c>
@@ -16732,7 +20776,7 @@
         <v>0.140764</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>7.4241159999999997E-3</v>
       </c>
@@ -16770,7 +20814,7 @@
         <v>0.149925</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>7.7641009999999998E-3</v>
       </c>
@@ -16808,7 +20852,7 @@
         <v>0.14588590000000001</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>8.5828299999999996E-3</v>
       </c>
@@ -16846,7 +20890,7 @@
         <v>0.14057900000000001</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>7.9839230000000004E-3</v>
       </c>
@@ -16884,7 +20928,7 @@
         <v>0.140343</v>
       </c>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>8.5911749999999995E-3</v>
       </c>
@@ -16922,7 +20966,7 @@
         <v>0.14181489999999999</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>8.0599780000000006E-3</v>
       </c>
@@ -16960,7 +21004,7 @@
         <v>0.14665700000000001</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>8.2218650000000001E-3</v>
       </c>
@@ -16998,7 +21042,7 @@
         <v>0.12904099999999999</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>7.7810290000000001E-3</v>
       </c>
@@ -17036,7 +21080,7 @@
         <v>0.127382</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>8.3208080000000007E-3</v>
       </c>
@@ -17074,7 +21118,7 @@
         <v>0.12844510000000001</v>
       </c>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>8.2280640000000002E-3</v>
       </c>
@@ -17112,7 +21156,7 @@
         <v>0.12640599999999999</v>
       </c>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>8.2159039999999996E-3</v>
       </c>
@@ -17150,7 +21194,7 @@
         <v>0.1081681</v>
       </c>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>8.5370540000000005E-3</v>
       </c>
@@ -17188,7 +21232,7 @@
         <v>0.1058559</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>8.1441399999999994E-3</v>
       </c>
@@ -17226,7 +21270,7 @@
         <v>0.1055439</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>8.4569450000000004E-3</v>
       </c>
@@ -17264,7 +21308,7 @@
         <v>0.11039499999999999</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>7.7090259999999999E-3</v>
       </c>
@@ -17302,7 +21346,7 @@
         <v>0.120326</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>8.5408689999999995E-3</v>
       </c>
@@ -17340,7 +21384,7 @@
         <v>0.1283321</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>8.2340239999999995E-3</v>
       </c>
@@ -17378,7 +21422,7 @@
         <v>0.1056449</v>
       </c>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>7.585049E-3</v>
       </c>
@@ -17416,7 +21460,7 @@
         <v>0.1114352</v>
       </c>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>8.3231929999999996E-3</v>
       </c>
@@ -17454,7 +21498,7 @@
         <v>0.13226199999999999</v>
       </c>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>8.2788470000000006E-3</v>
       </c>
@@ -17492,7 +21536,7 @@
         <v>0.1068709</v>
       </c>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>8.4609990000000003E-3</v>
       </c>
@@ -17530,7 +21574,7 @@
         <v>0.1085091</v>
       </c>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>8.4548000000000002E-3</v>
       </c>
@@ -17568,7 +21612,7 @@
         <v>0.11023810000000001</v>
       </c>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>7.7421670000000003E-3</v>
       </c>
@@ -17606,7 +21650,7 @@
         <v>0.11375399999999999</v>
       </c>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>8.1079010000000007E-3</v>
       </c>
@@ -17644,7 +21688,7 @@
         <v>0.12069009999999999</v>
       </c>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>8.0189700000000003E-3</v>
       </c>
@@ -17682,7 +21726,7 @@
         <v>0.1290491</v>
       </c>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>8.2800389999999995E-3</v>
       </c>
@@ -17733,9 +21777,9 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -17773,7 +21817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -17826,7 +21870,7 @@
         <v>0.13233573910000002</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>9.8729130000000005E-3</v>
       </c>
@@ -17864,7 +21908,7 @@
         <v>0.1293349</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>9.8290440000000003E-3</v>
       </c>
@@ -17902,7 +21946,7 @@
         <v>0.11177090000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1.0952949999999999E-2</v>
       </c>
@@ -17940,7 +21984,7 @@
         <v>0.12603500000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>9.9270339999999995E-3</v>
       </c>
@@ -17978,7 +22022,7 @@
         <v>0.127496</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>9.5000269999999994E-3</v>
       </c>
@@ -18016,7 +22060,7 @@
         <v>0.12053990000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>9.5648769999999994E-3</v>
       </c>
@@ -18054,7 +22098,7 @@
         <v>0.130748</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>9.2999940000000007E-3</v>
       </c>
@@ -18092,7 +22136,7 @@
         <v>0.14363219999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>9.5541480000000002E-3</v>
       </c>
@@ -18130,7 +22174,7 @@
         <v>0.13348080000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8.8710779999999993E-3</v>
       </c>
@@ -18168,7 +22212,7 @@
         <v>0.13433310000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>9.6139910000000006E-3</v>
       </c>
@@ -18206,7 +22250,7 @@
         <v>0.1336</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>9.1860290000000001E-3</v>
       </c>
@@ -18244,7 +22288,7 @@
         <v>0.132797</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>9.0889930000000001E-3</v>
       </c>
@@ -18282,7 +22326,7 @@
         <v>0.12844990000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>9.3619819999999996E-3</v>
       </c>
@@ -18320,7 +22364,7 @@
         <v>0.1286311</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>8.9221000000000005E-3</v>
       </c>
@@ -18358,7 +22402,7 @@
         <v>0.13669899999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>8.9399809999999996E-3</v>
       </c>
@@ -18396,7 +22440,7 @@
         <v>0.1342981</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>8.8210110000000001E-3</v>
       </c>
@@ -18434,7 +22478,7 @@
         <v>0.130775</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>9.0029240000000007E-3</v>
       </c>
@@ -18472,7 +22516,7 @@
         <v>0.1286051</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>8.8539120000000002E-3</v>
       </c>
@@ -18510,7 +22554,7 @@
         <v>0.1336021</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>9.3560220000000003E-3</v>
       </c>
@@ -18548,7 +22592,7 @@
         <v>0.12470100000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>8.7521079999999998E-3</v>
       </c>
@@ -18586,7 +22630,7 @@
         <v>0.13228110000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>8.2809930000000004E-3</v>
       </c>
@@ -18624,7 +22668,7 @@
         <v>0.132524</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>9.4621180000000003E-3</v>
       </c>
@@ -18662,7 +22706,7 @@
         <v>0.13436010000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>9.0110299999999997E-3</v>
       </c>
@@ -18700,7 +22744,7 @@
         <v>0.13286020000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>9.0968609999999995E-3</v>
       </c>
@@ -18738,7 +22782,7 @@
         <v>0.13256809999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>9.2868800000000008E-3</v>
       </c>
@@ -18776,7 +22820,7 @@
         <v>0.13384989999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>9.0060230000000002E-3</v>
       </c>
@@ -18814,7 +22858,7 @@
         <v>0.14394499999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>9.2999940000000007E-3</v>
       </c>
@@ -18852,7 +22896,7 @@
         <v>0.145288</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>8.4390639999999996E-3</v>
       </c>
@@ -18890,7 +22934,7 @@
         <v>0.14539099999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>9.4699859999999997E-3</v>
       </c>
@@ -18928,7 +22972,7 @@
         <v>0.145648</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>9.1269019999999992E-3</v>
       </c>
@@ -18966,7 +23010,7 @@
         <v>0.15423010000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>8.7101460000000002E-3</v>
       </c>
@@ -19004,7 +23048,7 @@
         <v>0.14373900000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>9.4530580000000003E-3</v>
       </c>
@@ -19042,7 +23086,7 @@
         <v>0.1423991</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>8.9600089999999997E-3</v>
       </c>
@@ -19080,7 +23124,7 @@
         <v>0.1268051</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>9.3328950000000008E-3</v>
       </c>
@@ -19118,7 +23162,7 @@
         <v>0.105628</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>8.8508130000000008E-3</v>
       </c>
@@ -19156,7 +23200,7 @@
         <v>0.1269391</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>8.9969639999999997E-3</v>
       </c>
@@ -19194,7 +23238,7 @@
         <v>0.1042218</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>9.2279909999999996E-3</v>
       </c>
@@ -19232,7 +23276,7 @@
         <v>0.10747909999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>9.5701220000000004E-3</v>
       </c>
@@ -19270,7 +23314,7 @@
         <v>0.13330910000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>1.0197879999999999E-2</v>
       </c>
@@ -19308,7 +23352,7 @@
         <v>0.1165149</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>1.085496E-2</v>
       </c>
@@ -19346,7 +23390,7 @@
         <v>0.1054399</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>1.003194E-2</v>
       </c>
@@ -19384,7 +23428,7 @@
         <v>0.1333811</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>1.080704E-2</v>
       </c>
@@ -19422,7 +23466,7 @@
         <v>0.13080410000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>9.7830299999999999E-3</v>
       </c>
@@ -19460,7 +23504,7 @@
         <v>0.109972</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>9.6509460000000005E-3</v>
       </c>
@@ -19498,7 +23542,7 @@
         <v>0.11215899999999999</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>9.4549660000000004E-3</v>
       </c>
@@ -19536,7 +23580,7 @@
         <v>0.117341</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>9.3820099999999997E-3</v>
       </c>
@@ -19574,7 +23618,7 @@
         <v>0.104645</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>1.007009E-2</v>
       </c>
@@ -19612,7 +23656,7 @@
         <v>0.13246179999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>6.9530010000000003E-3</v>
       </c>
@@ -19650,7 +23694,7 @@
         <v>0.1148102</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>1.014614E-2</v>
       </c>
@@ -19688,7 +23732,7 @@
         <v>0.1157451</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>9.5560550000000008E-3</v>
       </c>
@@ -19726,7 +23770,7 @@
         <v>0.1038082</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>8.1241130000000005E-3</v>
       </c>
@@ -19764,7 +23808,7 @@
         <v>0.1048381</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>1.0027889999999999E-2</v>
       </c>
@@ -19802,7 +23846,7 @@
         <v>0.105504</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>9.7429749999999992E-3</v>
       </c>
@@ -19840,7 +23884,7 @@
         <v>9.8563910000000005E-2</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>7.53808E-3</v>
       </c>
@@ -19878,7 +23922,7 @@
         <v>0.12860920000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>9.4509120000000005E-3</v>
       </c>
@@ -19916,7 +23960,7 @@
         <v>0.11013290000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>9.7348690000000002E-3</v>
       </c>
@@ -19954,7 +23998,7 @@
         <v>0.12667700000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>7.441998E-3</v>
       </c>
@@ -19992,7 +24036,7 @@
         <v>0.10285900000000001</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>1.0056020000000001E-2</v>
       </c>
@@ -20030,7 +24074,7 @@
         <v>0.1346099</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>1.0414120000000001E-2</v>
       </c>
@@ -20068,7 +24112,7 @@
         <v>0.13120699999999999</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>7.6580049999999998E-3</v>
       </c>
@@ -20106,7 +24150,7 @@
         <v>0.1293831</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>9.098053E-3</v>
       </c>
@@ -20144,7 +24188,7 @@
         <v>0.1348531</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>9.8009110000000007E-3</v>
       </c>
@@ -20182,7 +24226,7 @@
         <v>0.14129810000000001</v>
       </c>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>7.6429840000000002E-3</v>
       </c>
@@ -20220,7 +24264,7 @@
         <v>0.1403382</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>9.4339850000000006E-3</v>
       </c>
@@ -20258,7 +24302,7 @@
         <v>0.141151</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>9.6669200000000007E-3</v>
       </c>
@@ -20296,7 +24340,7 @@
         <v>0.15051200000000001</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>8.1069469999999998E-3</v>
       </c>
@@ -20334,7 +24378,7 @@
         <v>0.1396599</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>9.7520349999999992E-3</v>
       </c>
@@ -20372,7 +24416,7 @@
         <v>0.14106109999999999</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>9.4890589999999993E-3</v>
       </c>
@@ -20410,7 +24454,7 @@
         <v>0.13986899999999999</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>7.3471070000000003E-3</v>
       </c>
@@ -20448,7 +24492,7 @@
         <v>0.1426499</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>1.3505939999999999E-2</v>
       </c>
@@ -20486,7 +24530,7 @@
         <v>0.1439559</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>9.7889899999999992E-3</v>
       </c>
@@ -20524,7 +24568,7 @@
         <v>0.13924690000000001</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>7.5631140000000001E-3</v>
       </c>
@@ -20562,7 +24606,7 @@
         <v>0.14396500000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>7.6808930000000003E-3</v>
       </c>
@@ -20600,7 +24644,7 @@
         <v>0.13814209999999999</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>9.2678069999999994E-3</v>
       </c>
@@ -20638,7 +24682,7 @@
         <v>0.13989399999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>9.4890589999999993E-3</v>
       </c>
@@ -20676,7 +24720,7 @@
         <v>0.142406</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>1.0190960000000001E-2</v>
       </c>
@@ -20714,7 +24758,7 @@
         <v>0.14305090000000001</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>9.4711780000000002E-3</v>
       </c>
@@ -20752,7 +24796,7 @@
         <v>0.1420872</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>9.8910330000000005E-3</v>
       </c>
@@ -20790,7 +24834,7 @@
         <v>0.14713689999999999</v>
       </c>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>8.1448549999999995E-3</v>
       </c>
@@ -20828,7 +24872,7 @@
         <v>0.1422939</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>9.135008E-3</v>
       </c>
@@ -20866,7 +24910,7 @@
         <v>0.138104</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>9.7219939999999994E-3</v>
       </c>
@@ -20904,7 +24948,7 @@
         <v>0.13082099999999999</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>7.5130459999999998E-3</v>
       </c>
@@ -20942,7 +24986,7 @@
         <v>0.14415410000000001</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>9.2751980000000001E-3</v>
       </c>
@@ -20980,7 +25024,7 @@
         <v>0.1505618</v>
       </c>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>9.6421240000000002E-3</v>
       </c>
@@ -21018,7 +25062,7 @@
         <v>0.1347508</v>
       </c>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>9.8578929999999995E-3</v>
       </c>
@@ -21056,7 +25100,7 @@
         <v>0.14521600000000001</v>
       </c>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>7.4830060000000004E-3</v>
       </c>
@@ -21094,7 +25138,7 @@
         <v>0.13595889999999999</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>9.9058150000000001E-3</v>
       </c>
@@ -21132,7 +25176,7 @@
         <v>0.1430168</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>1.043606E-2</v>
       </c>
@@ -21170,7 +25214,7 @@
         <v>0.1448209</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>9.4931129999999992E-3</v>
       </c>
@@ -21208,7 +25252,7 @@
         <v>0.14160800000000001</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>9.2399119999999994E-3</v>
       </c>
@@ -21246,7 +25290,7 @@
         <v>0.13858100000000001</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>6.7729950000000004E-3</v>
       </c>
@@ -21284,7 +25328,7 @@
         <v>0.14534900000000001</v>
       </c>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>7.5590609999999997E-3</v>
       </c>
@@ -21322,7 +25366,7 @@
         <v>0.14041500000000001</v>
       </c>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>9.7470279999999996E-3</v>
       </c>
@@ -21360,7 +25404,7 @@
         <v>0.1462591</v>
       </c>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>7.7078340000000002E-3</v>
       </c>
@@ -21398,7 +25442,7 @@
         <v>0.14909220000000001</v>
       </c>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>1.029587E-2</v>
       </c>
@@ -21436,7 +25480,7 @@
         <v>0.13974310000000001</v>
       </c>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>9.7670559999999997E-3</v>
       </c>
@@ -21474,7 +25518,7 @@
         <v>0.14923910000000001</v>
       </c>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>7.3051449999999999E-3</v>
       </c>
@@ -21512,7 +25556,7 @@
         <v>0.14275879999999999</v>
       </c>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>1.0185960000000001E-2</v>
       </c>
@@ -21550,7 +25594,7 @@
         <v>0.14238600000000001</v>
       </c>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>1.0169030000000001E-2</v>
       </c>
@@ -21588,7 +25632,7 @@
         <v>0.129077</v>
       </c>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>8.1369879999999995E-3</v>
       </c>
@@ -21639,9 +25683,9 @@
       <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -21679,7 +25723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -21732,7 +25776,7 @@
         <v>0.13669702299999997</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>9.7169879999999993E-3</v>
       </c>
@@ -21770,7 +25814,7 @@
         <v>0.12889600000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>8.980989E-3</v>
       </c>
@@ -21808,7 +25852,7 @@
         <v>0.133409</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>8.7800029999999998E-3</v>
       </c>
@@ -21846,7 +25890,7 @@
         <v>0.10959289999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>9.1311929999999993E-3</v>
       </c>
@@ -21884,7 +25928,7 @@
         <v>0.1028941</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>8.4719659999999992E-3</v>
       </c>
@@ -21922,7 +25966,7 @@
         <v>0.13128709999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>8.1870559999999998E-3</v>
       </c>
@@ -21960,7 +26004,7 @@
         <v>0.13287689999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8.2159039999999996E-3</v>
       </c>
@@ -21998,7 +26042,7 @@
         <v>0.15987609999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>8.5120200000000003E-3</v>
       </c>
@@ -22036,7 +26080,7 @@
         <v>0.12729190000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>6.9170000000000004E-3</v>
       </c>
@@ -22074,7 +26118,7 @@
         <v>0.1326599</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>8.0330369999999998E-3</v>
       </c>
@@ -22112,7 +26156,7 @@
         <v>0.13244890000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>7.4849130000000002E-3</v>
       </c>
@@ -22150,7 +26194,7 @@
         <v>0.12765499999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>8.6758140000000004E-3</v>
       </c>
@@ -22188,7 +26232,7 @@
         <v>0.13281490000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>8.5949900000000003E-3</v>
       </c>
@@ -22226,7 +26270,7 @@
         <v>0.12456490000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>7.2309970000000003E-3</v>
       </c>
@@ -22264,7 +26308,7 @@
         <v>0.13686390000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>7.9529289999999992E-3</v>
       </c>
@@ -22302,7 +26346,7 @@
         <v>0.1379309</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>6.7119600000000003E-3</v>
       </c>
@@ -22340,7 +26384,7 @@
         <v>0.13012099999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>8.1219670000000008E-3</v>
       </c>
@@ -22378,7 +26422,7 @@
         <v>0.12918589999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>7.4899199999999997E-3</v>
       </c>
@@ -22416,7 +26460,7 @@
         <v>0.13217709999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>8.4769730000000005E-3</v>
       </c>
@@ -22454,7 +26498,7 @@
         <v>0.12809609999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>6.9229599999999997E-3</v>
       </c>
@@ -22492,7 +26536,7 @@
         <v>0.12881780000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>7.2300430000000002E-3</v>
       </c>
@@ -22530,7 +26574,7 @@
         <v>0.1342361</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>8.3038810000000008E-3</v>
       </c>
@@ -22568,7 +26612,7 @@
         <v>0.13581109999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>9.0970990000000009E-3</v>
       </c>
@@ -22606,7 +26650,7 @@
         <v>0.14256720000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>7.8089240000000001E-3</v>
       </c>
@@ -22644,7 +26688,7 @@
         <v>0.14256189999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>8.2938669999999999E-3</v>
       </c>
@@ -22682,7 +26726,7 @@
         <v>0.14658189999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>8.7018010000000003E-3</v>
       </c>
@@ -22720,7 +26764,7 @@
         <v>0.14335390000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>7.089138E-3</v>
       </c>
@@ -22758,7 +26802,7 @@
         <v>0.16544010000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>8.4769730000000005E-3</v>
       </c>
@@ -22796,7 +26840,7 @@
         <v>0.14590719999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>7.2309970000000003E-3</v>
       </c>
@@ -22834,7 +26878,7 @@
         <v>0.14156289999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>8.5320469999999992E-3</v>
       </c>
@@ -22872,7 +26916,7 @@
         <v>0.144063</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>8.1601139999999996E-3</v>
       </c>
@@ -22910,7 +26954,7 @@
         <v>0.14471700000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>9.2818740000000007E-3</v>
       </c>
@@ -22948,7 +26992,7 @@
         <v>0.1449618</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>1.045012E-2</v>
       </c>
@@ -22986,7 +27030,7 @@
         <v>0.14440890000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>9.8659990000000003E-3</v>
       </c>
@@ -23024,7 +27068,7 @@
         <v>0.14024519999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>1.055908E-2</v>
       </c>
@@ -23062,7 +27106,7 @@
         <v>0.1463671</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>1.9351960000000001E-2</v>
       </c>
@@ -23100,7 +27144,7 @@
         <v>0.1426229</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>1.1235E-2</v>
       </c>
@@ -23138,7 +27182,7 @@
         <v>0.13897300000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>1.0486840000000001E-2</v>
       </c>
@@ -23176,7 +27220,7 @@
         <v>0.144263</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>1.068997E-2</v>
       </c>
@@ -23214,7 +27258,7 @@
         <v>0.141927</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>7.492065E-3</v>
       </c>
@@ -23252,7 +27296,7 @@
         <v>0.14332010000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>1.0741000000000001E-2</v>
       </c>
@@ -23290,7 +27334,7 @@
         <v>0.14224909999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>7.9691410000000008E-3</v>
       </c>
@@ -23328,7 +27372,7 @@
         <v>0.13838790000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>1.0126110000000001E-2</v>
       </c>
@@ -23366,7 +27410,7 @@
         <v>0.140239</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>7.99799E-3</v>
       </c>
@@ -23404,7 +27448,7 @@
         <v>0.1428151</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>9.9101069999999996E-3</v>
       </c>
@@ -23442,7 +27486,7 @@
         <v>0.14221909999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>1.014495E-2</v>
       </c>
@@ -23480,7 +27524,7 @@
         <v>0.1473429</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>7.1668620000000004E-3</v>
       </c>
@@ -23518,7 +27562,7 @@
         <v>0.14602399999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>9.8512170000000007E-3</v>
       </c>
@@ -23556,7 +27600,7 @@
         <v>0.1458189</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>7.5600149999999998E-3</v>
       </c>
@@ -23594,7 +27638,7 @@
         <v>0.14207600000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>9.8249909999999999E-3</v>
       </c>
@@ -23632,7 +27676,7 @@
         <v>0.14216609999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>7.2100159999999996E-3</v>
       </c>
@@ -23670,7 +27714,7 @@
         <v>0.14274980000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>9.7610949999999991E-3</v>
       </c>
@@ -23708,7 +27752,7 @@
         <v>0.14369989999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>7.1499349999999996E-3</v>
       </c>
@@ -23746,7 +27790,7 @@
         <v>0.1426289</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>7.1480270000000004E-3</v>
       </c>
@@ -23784,7 +27828,7 @@
         <v>0.13900019999999999</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>1.125598E-2</v>
       </c>
@@ -23822,7 +27866,7 @@
         <v>0.14183899999999999</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>7.3521139999999999E-3</v>
       </c>
@@ -23860,7 +27904,7 @@
         <v>0.1451721</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>8.2278249999999994E-3</v>
       </c>
@@ -23898,7 +27942,7 @@
         <v>0.1460321</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>7.232189E-3</v>
       </c>
@@ -23936,7 +27980,7 @@
         <v>0.13757610000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>1.111817E-2</v>
       </c>
@@ -23974,7 +28018,7 @@
         <v>0.1450891</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>7.3781009999999998E-3</v>
       </c>
@@ -24012,7 +28056,7 @@
         <v>0.13638210000000001</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>9.0250969999999993E-3</v>
       </c>
@@ -24050,7 +28094,7 @@
         <v>0.14124200000000001</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>8.0161090000000004E-3</v>
       </c>
@@ -24088,7 +28132,7 @@
         <v>0.13322999999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>8.410931E-3</v>
       </c>
@@ -24126,7 +28170,7 @@
         <v>0.12812709999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>1.1352060000000001E-2</v>
       </c>
@@ -24164,7 +28208,7 @@
         <v>0.12998799999999999</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>1.1734959999999999E-2</v>
       </c>
@@ -24202,7 +28246,7 @@
         <v>0.13028880000000001</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>1.174617E-2</v>
       </c>
@@ -24240,7 +28284,7 @@
         <v>0.13446</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>1.1909009999999999E-2</v>
       </c>
@@ -24278,7 +28322,7 @@
         <v>0.1285541</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>1.354909E-2</v>
       </c>
@@ -24316,7 +28360,7 @@
         <v>0.13120509999999999</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>1.183796E-2</v>
       </c>
@@ -24354,7 +28398,7 @@
         <v>0.13026209999999999</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>1.3051989999999999E-2</v>
       </c>
@@ -24392,7 +28436,7 @@
         <v>0.131103</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>1.223397E-2</v>
       </c>
@@ -24430,7 +28474,7 @@
         <v>0.12820819999999999</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>1.1944059999999999E-2</v>
       </c>
@@ -24468,7 +28512,7 @@
         <v>0.13307910000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>1.199412E-2</v>
       </c>
@@ -24506,7 +28550,7 @@
         <v>0.1326389</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>1.2176040000000001E-2</v>
       </c>
@@ -24544,7 +28588,7 @@
         <v>0.13115499999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>1.178908E-2</v>
       </c>
@@ -24582,7 +28626,7 @@
         <v>0.13096189999999999</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>1.255393E-2</v>
       </c>
@@ -24620,7 +28664,7 @@
         <v>0.12872790000000001</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>1.038504E-2</v>
       </c>
@@ -24658,7 +28702,7 @@
         <v>0.13341900000000001</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>1.0104180000000001E-2</v>
       </c>
@@ -24696,7 +28740,7 @@
         <v>0.13029099999999999</v>
       </c>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>8.2190040000000002E-3</v>
       </c>
@@ -24734,7 +28778,7 @@
         <v>0.13164880000000001</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>9.7339149999999992E-3</v>
       </c>
@@ -24772,7 +28816,7 @@
         <v>0.13508300000000001</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>9.1540809999999997E-3</v>
       </c>
@@ -24810,7 +28854,7 @@
         <v>0.13330910000000001</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>8.8829990000000008E-3</v>
       </c>
@@ -24848,7 +28892,7 @@
         <v>0.13115689999999999</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>9.4721319999999994E-3</v>
       </c>
@@ -24886,7 +28930,7 @@
         <v>0.13028190000000001</v>
       </c>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>9.125948E-3</v>
       </c>
@@ -24924,7 +28968,7 @@
         <v>0.13107089999999999</v>
       </c>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>9.2921259999999995E-3</v>
       </c>
@@ -24962,7 +29006,7 @@
         <v>0.11942410000000001</v>
       </c>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>8.3839889999999997E-3</v>
       </c>
@@ -25000,7 +29044,7 @@
         <v>0.12731190000000001</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>9.5670219999999997E-3</v>
       </c>
@@ -25038,7 +29082,7 @@
         <v>0.1316271</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>8.6390970000000001E-3</v>
       </c>
@@ -25076,7 +29120,7 @@
         <v>0.15007090000000001</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>8.4729190000000006E-3</v>
       </c>
@@ -25114,7 +29158,7 @@
         <v>0.13208909999999999</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>8.7428090000000007E-3</v>
       </c>
@@ -25152,7 +29196,7 @@
         <v>0.14285300000000001</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>7.5950619999999996E-3</v>
       </c>
@@ -25190,7 +29234,7 @@
         <v>0.1309121</v>
       </c>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>9.5481869999999996E-3</v>
       </c>
@@ -25228,7 +29272,7 @@
         <v>0.142874</v>
       </c>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>8.4288120000000008E-3</v>
       </c>
@@ -25266,7 +29310,7 @@
         <v>0.14102319999999999</v>
       </c>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>8.6188319999999999E-3</v>
       </c>
@@ -25304,7 +29348,7 @@
         <v>0.14032600000000001</v>
       </c>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>9.7579959999999997E-3</v>
       </c>
@@ -25342,7 +29386,7 @@
         <v>0.1443622</v>
       </c>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>7.414103E-3</v>
       </c>
@@ -25380,7 +29424,7 @@
         <v>0.1396191</v>
       </c>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>1.050711E-2</v>
       </c>
@@ -25418,7 +29462,7 @@
         <v>0.145237</v>
       </c>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>9.6509460000000005E-3</v>
       </c>
@@ -25456,7 +29500,7 @@
         <v>0.14153389999999999</v>
       </c>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>9.1221329999999993E-3</v>
       </c>
@@ -25494,7 +29538,7 @@
         <v>0.13869000000000001</v>
       </c>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>8.4538459999999992E-3</v>
       </c>

--- a/Lab3/data.xlsx
+++ b/Lab3/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stepy\Documents\UNIVERSITY\0_Winter2023\ECE420\Lab\GitECE420\ECE420\Lab3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hilton\Documents\GitHub\ECE420\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510418E3-97C0-4276-9362-A951B12F8046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B743EED-1E7D-4357-8195-0AAD5579F53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6E44FC85-38A8-4D93-B0D8-88DC4EE778F3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="20220" xr2:uid="{6E44FC85-38A8-4D93-B0D8-88DC4EE778F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -186,12 +186,12 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -291,72 +291,6 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>auto</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$3:$C$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>7.6194334400000018E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.9373327700000005E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1044034290000004E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1A04-43DE-885D-9A571B3F16D3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -419,72 +353,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1A04-43DE-885D-9A571B3F16D3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>guided</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$3:$E$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>7.5099229700000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1600720310000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0522370200000002E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1A04-43DE-885D-9A571B3F16D3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -632,6 +500,182 @@
         <c:overlap val="-27"/>
         <c:axId val="510528863"/>
         <c:axId val="510526783"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>auto</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$3:$B$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$3:$C$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>7.6194334400000018E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8.9373327700000005E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.1044034290000004E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-1A04-43DE-885D-9A571B3F16D3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>guided</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$3:$B$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$3:$E$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>7.5099229700000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.1600720310000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8.0522370200000002E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-1A04-43DE-885D-9A571B3F16D3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
       </c:barChart>
       <c:catAx>
         <c:axId val="510528863"/>
@@ -1007,72 +1051,6 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>auto</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$6:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$6:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.5487904799999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7778730199999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6840577400000001E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C8AC-4F7D-900B-3D37BDE7FFD3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -1135,72 +1113,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C8AC-4F7D-900B-3D37BDE7FFD3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>guided</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$6:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$6:$E$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.7807178399999991E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5848584400000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5027247100000005E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C8AC-4F7D-900B-3D37BDE7FFD3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1348,6 +1260,182 @@
         <c:overlap val="-27"/>
         <c:axId val="514879711"/>
         <c:axId val="514880959"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>auto</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$6:$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$6:$C$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>1.5487904799999994E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.7778730199999995E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.6840577400000001E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-C8AC-4F7D-900B-3D37BDE7FFD3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>guided</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$6:$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$6:$E$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>1.7807178399999991E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.5848584400000004E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.5027247100000005E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-C8AC-4F7D-900B-3D37BDE7FFD3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
       </c:barChart>
       <c:catAx>
         <c:axId val="514879711"/>
@@ -1727,72 +1815,6 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>auto</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$9:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$9:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6.4700167200000019E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.0299785399999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.5263523800000001E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AC2B-4232-84E1-4E5AC91551FD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -1855,72 +1877,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AC2B-4232-84E1-4E5AC91551FD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>guided</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$9:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$9:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6.1062942099999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.6343550899999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.0407702400000034E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AC2B-4232-84E1-4E5AC91551FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2068,6 +2024,182 @@
         <c:overlap val="-27"/>
         <c:axId val="2078504079"/>
         <c:axId val="2078504495"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>auto</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$9:$B$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$9:$C$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>6.4700167200000019E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7.0299785399999995E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>6.5263523800000001E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-AC2B-4232-84E1-4E5AC91551FD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>guided</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$9:$B$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$9:$E$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>6.1062942099999996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5.6343550899999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>6.0407702400000034E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-AC2B-4232-84E1-4E5AC91551FD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
       </c:barChart>
       <c:catAx>
         <c:axId val="2078504079"/>
@@ -2449,72 +2581,6 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>auto</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$9:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$12:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.11866088519999994</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.11866088519999994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.13078609300000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F561-419E-92C6-DD79FC854ED8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -2577,72 +2643,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F561-419E-92C6-DD79FC854ED8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>guided</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$9:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$12:$E$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.1185329638</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13115557700000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.13210137199999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F561-419E-92C6-DD79FC854ED8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2790,6 +2790,182 @@
         <c:overlap val="-27"/>
         <c:axId val="2088098847"/>
         <c:axId val="2088098431"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>auto</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$9:$B$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$12:$C$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0.11866088519999994</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.11866088519999994</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.13078609300000002</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-F561-419E-92C6-DD79FC854ED8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>guided</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$9:$B$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$12:$E$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0.1185329638</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.13115557700000002</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.13210137199999997</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-F561-419E-92C6-DD79FC854ED8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
       </c:barChart>
       <c:catAx>
         <c:axId val="2088098847"/>
@@ -9066,17 +9242,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FA4254-8163-4429-852E-588158CEB352}">
   <dimension ref="A2:H117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -9096,12 +9272,12 @@
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="1">
@@ -9124,12 +9300,12 @@
       <c r="G3" s="1">
         <v>9.2667007100000059E-3</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="5"/>
       <c r="B4" s="1">
         <v>100</v>
       </c>
@@ -9150,12 +9326,12 @@
       <c r="G4" s="1">
         <v>9.3035792400000001E-3</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
       <c r="B5" s="1">
         <v>500</v>
       </c>
@@ -9176,12 +9352,12 @@
       <c r="G5" s="1">
         <v>1.0219333489999999E-2</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="1">
@@ -9204,12 +9380,12 @@
       <c r="G6" s="1">
         <v>1.5444219199999993E-2</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
       <c r="B7" s="1">
         <v>100</v>
       </c>
@@ -9230,12 +9406,12 @@
       <c r="G7" s="1">
         <v>1.8103258300000001E-2</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>0.248</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
       <c r="B8" s="1">
         <v>500</v>
       </c>
@@ -9256,12 +9432,12 @@
       <c r="G8" s="1">
         <v>1.7051017199999997E-2</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>0.27400000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="1">
@@ -9284,12 +9460,12 @@
       <c r="G9" s="1">
         <v>6.2405202199999996E-2</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>1.2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
       <c r="B10" s="1">
         <v>100</v>
       </c>
@@ -9310,12 +9486,12 @@
       <c r="G10" s="1">
         <v>6.4149466000000016E-2</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>1.19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
       <c r="B11" s="1">
         <v>500</v>
       </c>
@@ -9336,12 +9512,12 @@
       <c r="G11" s="1">
         <v>6.1480663099999958E-2</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="1">
@@ -9364,12 +9540,12 @@
       <c r="G12" s="1">
         <v>0.13281177000000005</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>2.52</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="5"/>
       <c r="B13" s="1">
         <v>100</v>
       </c>
@@ -9390,12 +9566,12 @@
       <c r="G13" s="1">
         <v>0.11669172769999994</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>2.5099999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="5"/>
       <c r="B14" s="1">
         <v>500</v>
       </c>
@@ -9416,626 +9592,626 @@
       <c r="G14" s="1">
         <v>0.13669702299999997</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>2.5099999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>5</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>10</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>50</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>100</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="H50" s="4"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="H59" s="4"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="H60" s="4"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="H61" s="4"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="H63" s="4"/>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="H64" s="4"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="H65" s="4"/>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="H66" s="4"/>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="H69" s="4"/>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="H71" s="4"/>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="H72" s="4"/>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="H73" s="4"/>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="H74" s="4"/>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="H75" s="4"/>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="H76" s="4"/>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="H77" s="4"/>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="H78" s="4"/>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="H79" s="4"/>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="H80" s="4"/>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="H81" s="4"/>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="H82" s="4"/>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="H83" s="4"/>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="H84" s="4"/>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="H85" s="4"/>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="H86" s="4"/>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="H87" s="4"/>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="H88" s="4"/>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="H89" s="4"/>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="H90" s="4"/>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="H91" s="4"/>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="H92" s="4"/>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="H93" s="4"/>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="H94" s="4"/>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="H95" s="4"/>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="H96" s="4"/>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="H97" s="4"/>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="H98" s="4"/>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="H99" s="4"/>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="H100" s="4"/>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="H101" s="4"/>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="H102" s="4"/>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="H103" s="4"/>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="H104" s="4"/>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="H105" s="4"/>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="H106" s="4"/>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="H107" s="4"/>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="H108" s="4"/>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="H109" s="4"/>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="H110" s="4"/>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="H111" s="4"/>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="H112" s="4"/>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="H113" s="4"/>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
-      <c r="F114" s="4"/>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="F115" s="4"/>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="F116" s="4"/>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C117" s="4"/>
-      <c r="F117" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="H95" s="3"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="H97" s="3"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="H98" s="3"/>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="H99" s="3"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="H100" s="3"/>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="H101" s="3"/>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="H102" s="3"/>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="H103" s="3"/>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="H104" s="3"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="H105" s="3"/>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="H106" s="3"/>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="H107" s="3"/>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="H108" s="3"/>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="H109" s="3"/>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="H110" s="3"/>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="H111" s="3"/>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="H112" s="3"/>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="H113" s="3"/>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="F114" s="3"/>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="F115" s="3"/>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="F116" s="3"/>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C117" s="3"/>
+      <c r="F117" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10058,9 +10234,9 @@
       <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -10098,7 +10274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -10151,7 +10327,7 @@
         <v>0.13078609300000002</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>7.1899889999999999E-3</v>
       </c>
@@ -10189,7 +10365,7 @@
         <v>0.12965299999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>7.2448249999999999E-3</v>
       </c>
@@ -10227,7 +10403,7 @@
         <v>0.131886</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>8.9521410000000003E-3</v>
       </c>
@@ -10265,7 +10441,7 @@
         <v>0.13026499999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>8.5542199999999995E-3</v>
       </c>
@@ -10303,7 +10479,7 @@
         <v>0.1298571</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>8.4011550000000004E-3</v>
       </c>
@@ -10341,7 +10517,7 @@
         <v>0.12970499999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>7.7061650000000001E-3</v>
       </c>
@@ -10379,7 +10555,7 @@
         <v>0.1203752</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>7.0850849999999996E-3</v>
       </c>
@@ -10417,7 +10593,7 @@
         <v>0.1514721</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>7.93314E-3</v>
       </c>
@@ -10455,7 +10631,7 @@
         <v>0.1323578</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>8.4240440000000003E-3</v>
       </c>
@@ -10493,7 +10669,7 @@
         <v>0.13345599999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>8.0900190000000004E-3</v>
       </c>
@@ -10531,7 +10707,7 @@
         <v>0.13122110000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>7.2500710000000003E-3</v>
       </c>
@@ -10569,7 +10745,7 @@
         <v>0.1306601</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>7.2939399999999996E-3</v>
       </c>
@@ -10607,7 +10783,7 @@
         <v>0.13042190000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>7.6940059999999998E-3</v>
       </c>
@@ -10645,7 +10821,7 @@
         <v>0.12832589999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>8.4640979999999998E-3</v>
       </c>
@@ -10683,7 +10859,7 @@
         <v>0.13617109999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>7.5139999999999998E-3</v>
       </c>
@@ -10721,7 +10897,7 @@
         <v>0.12529899999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>7.9410079999999994E-3</v>
       </c>
@@ -10759,7 +10935,7 @@
         <v>0.1323462</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>7.3368549999999998E-3</v>
       </c>
@@ -10797,7 +10973,7 @@
         <v>0.12912989999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>7.7691080000000003E-3</v>
       </c>
@@ -10835,7 +11011,7 @@
         <v>0.1302228</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>7.3218349999999996E-3</v>
       </c>
@@ -10873,7 +11049,7 @@
         <v>0.13265399999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>7.6501370000000004E-3</v>
       </c>
@@ -10911,7 +11087,7 @@
         <v>0.1452301</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>8.4121230000000005E-3</v>
       </c>
@@ -10949,7 +11125,7 @@
         <v>0.14508509999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>7.449865E-3</v>
       </c>
@@ -10987,7 +11163,7 @@
         <v>0.13601679999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>6.5341000000000002E-3</v>
       </c>
@@ -11025,7 +11201,7 @@
         <v>0.14047000000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>7.8990459999999998E-3</v>
       </c>
@@ -11063,7 +11239,7 @@
         <v>0.139267</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>7.8849790000000003E-3</v>
       </c>
@@ -11101,7 +11277,7 @@
         <v>0.1437619</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>7.6282019999999997E-3</v>
       </c>
@@ -11139,7 +11315,7 @@
         <v>0.14477709999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>7.5700280000000003E-3</v>
       </c>
@@ -11177,7 +11353,7 @@
         <v>0.14615010000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>8.3999629999999999E-3</v>
       </c>
@@ -11215,7 +11391,7 @@
         <v>0.14422989999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>8.5039139999999996E-3</v>
       </c>
@@ -11253,7 +11429,7 @@
         <v>0.1405129</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>7.036924E-3</v>
       </c>
@@ -11291,7 +11467,7 @@
         <v>0.13802</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>7.664204E-3</v>
       </c>
@@ -11329,7 +11505,7 @@
         <v>0.14105390000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>7.5650220000000002E-3</v>
       </c>
@@ -11367,7 +11543,7 @@
         <v>0.1489849</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>7.1208479999999999E-3</v>
       </c>
@@ -11405,7 +11581,7 @@
         <v>0.144762</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>7.539034E-3</v>
       </c>
@@ -11443,7 +11619,7 @@
         <v>0.13653209999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>8.9461799999999998E-3</v>
       </c>
@@ -11481,7 +11657,7 @@
         <v>0.14093610000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>7.3828699999999997E-3</v>
       </c>
@@ -11519,7 +11695,7 @@
         <v>0.134161</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>8.4538459999999992E-3</v>
       </c>
@@ -11557,7 +11733,7 @@
         <v>0.1347959</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>6.4580439999999996E-3</v>
       </c>
@@ -11595,7 +11771,7 @@
         <v>0.137928</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>7.172108E-3</v>
       </c>
@@ -11633,7 +11809,7 @@
         <v>0.13655400000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>6.8418979999999999E-3</v>
       </c>
@@ -11671,7 +11847,7 @@
         <v>0.13749500000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>7.1051120000000002E-3</v>
       </c>
@@ -11709,7 +11885,7 @@
         <v>0.123292</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>7.3599820000000002E-3</v>
       </c>
@@ -11747,7 +11923,7 @@
         <v>0.126775</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>8.5661409999999993E-3</v>
       </c>
@@ -11785,7 +11961,7 @@
         <v>0.12725710000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>7.6320169999999996E-3</v>
       </c>
@@ -11823,7 +11999,7 @@
         <v>0.1276631</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>6.3250060000000002E-3</v>
       </c>
@@ -11861,7 +12037,7 @@
         <v>0.1268919</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>7.9369539999999995E-3</v>
       </c>
@@ -11899,7 +12075,7 @@
         <v>0.126276</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>8.2678790000000005E-3</v>
       </c>
@@ -11937,7 +12113,7 @@
         <v>0.12675500000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>8.0220699999999992E-3</v>
       </c>
@@ -11975,7 +12151,7 @@
         <v>0.1279788</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>6.3700680000000004E-3</v>
       </c>
@@ -12013,7 +12189,7 @@
         <v>0.128751</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>7.5120930000000001E-3</v>
       </c>
@@ -12051,7 +12227,7 @@
         <v>0.12898090000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>8.4240440000000003E-3</v>
       </c>
@@ -12089,7 +12265,7 @@
         <v>0.12752910000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>7.6558590000000001E-3</v>
       </c>
@@ -12127,7 +12303,7 @@
         <v>0.127419</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>6.3622000000000001E-3</v>
       </c>
@@ -12165,7 +12341,7 @@
         <v>0.12836310000000001</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>7.171869E-3</v>
       </c>
@@ -12203,7 +12379,7 @@
         <v>0.13273190000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>7.1549420000000001E-3</v>
       </c>
@@ -12241,7 +12417,7 @@
         <v>0.123275</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>7.037878E-3</v>
       </c>
@@ -12279,7 +12455,7 @@
         <v>0.129112</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>8.3799359999999993E-3</v>
       </c>
@@ -12317,7 +12493,7 @@
         <v>0.1265249</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>8.2349780000000004E-3</v>
       </c>
@@ -12355,7 +12531,7 @@
         <v>0.125695</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>8.5670950000000003E-3</v>
       </c>
@@ -12393,7 +12569,7 @@
         <v>0.1281011</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>7.3189739999999998E-3</v>
       </c>
@@ -12431,7 +12607,7 @@
         <v>0.12767390000000001</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>7.9920289999999995E-3</v>
       </c>
@@ -12469,7 +12645,7 @@
         <v>0.1287131</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>7.019043E-3</v>
       </c>
@@ -12507,7 +12683,7 @@
         <v>0.1294911</v>
       </c>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>7.1599480000000002E-3</v>
       </c>
@@ -12545,7 +12721,7 @@
         <v>0.13137789999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>7.0347789999999997E-3</v>
       </c>
@@ -12583,7 +12759,7 @@
         <v>0.13130310000000001</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>7.4989799999999997E-3</v>
       </c>
@@ -12621,7 +12797,7 @@
         <v>0.127912</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>7.2619920000000001E-3</v>
       </c>
@@ -12659,7 +12835,7 @@
         <v>0.127965</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>7.6990130000000002E-3</v>
       </c>
@@ -12697,7 +12873,7 @@
         <v>0.12662290000000001</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>7.5838570000000003E-3</v>
       </c>
@@ -12735,7 +12911,7 @@
         <v>0.12681480000000001</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>7.0550439999999999E-3</v>
       </c>
@@ -12773,7 +12949,7 @@
         <v>0.12764690000000001</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B72">
         <v>7.107019E-3</v>
       </c>
@@ -12811,7 +12987,7 @@
         <v>0.1018279</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>7.2560309999999996E-3</v>
       </c>
@@ -12849,7 +13025,7 @@
         <v>0.13171389999999999</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>7.5211519999999997E-3</v>
       </c>
@@ -12887,7 +13063,7 @@
         <v>0.1188099</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>7.5590609999999997E-3</v>
       </c>
@@ -12925,7 +13101,7 @@
         <v>0.12692999999999999</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>7.4481959999999998E-3</v>
       </c>
@@ -12963,7 +13139,7 @@
         <v>0.1247761</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>8.2201960000000008E-3</v>
       </c>
@@ -13001,7 +13177,7 @@
         <v>0.125668</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>8.1601139999999996E-3</v>
       </c>
@@ -13039,7 +13215,7 @@
         <v>0.129832</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B79">
         <v>7.7230930000000003E-3</v>
       </c>
@@ -13077,7 +13253,7 @@
         <v>0.13050990000000001</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>7.5728890000000002E-3</v>
       </c>
@@ -13115,7 +13291,7 @@
         <v>0.12430620000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B81">
         <v>7.3189739999999998E-3</v>
       </c>
@@ -13153,7 +13329,7 @@
         <v>0.12787599999999999</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B82">
         <v>7.2391030000000002E-3</v>
       </c>
@@ -13191,7 +13367,7 @@
         <v>0.1240149</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B83">
         <v>7.0440770000000002E-3</v>
       </c>
@@ -13229,7 +13405,7 @@
         <v>0.1291602</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B84">
         <v>7.0111749999999997E-3</v>
       </c>
@@ -13267,7 +13443,7 @@
         <v>0.12762709999999999</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B85">
         <v>7.0860389999999997E-3</v>
       </c>
@@ -13305,7 +13481,7 @@
         <v>0.1288579</v>
       </c>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B86">
         <v>7.172108E-3</v>
       </c>
@@ -13343,7 +13519,7 @@
         <v>0.125663</v>
       </c>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B87">
         <v>7.107019E-3</v>
       </c>
@@ -13381,7 +13557,7 @@
         <v>0.12798499999999999</v>
       </c>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B88">
         <v>7.6169970000000004E-3</v>
       </c>
@@ -13419,7 +13595,7 @@
         <v>0.12702579999999999</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B89">
         <v>7.1659089999999998E-3</v>
       </c>
@@ -13457,7 +13633,7 @@
         <v>0.1271031</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B90">
         <v>7.2240830000000001E-3</v>
       </c>
@@ -13495,7 +13671,7 @@
         <v>0.12973190000000001</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B91">
         <v>7.9109669999999997E-3</v>
       </c>
@@ -13533,7 +13709,7 @@
         <v>0.12679409999999999</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>7.0760249999999997E-3</v>
       </c>
@@ -13571,7 +13747,7 @@
         <v>0.1218159</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B93">
         <v>8.9218619999999992E-3</v>
       </c>
@@ -13609,7 +13785,7 @@
         <v>0.126359</v>
       </c>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B94">
         <v>7.2519780000000001E-3</v>
       </c>
@@ -13647,7 +13823,7 @@
         <v>0.12133099999999999</v>
       </c>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B95">
         <v>8.5887910000000001E-3</v>
       </c>
@@ -13685,7 +13861,7 @@
         <v>0.124959</v>
       </c>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>8.1949229999999998E-3</v>
       </c>
@@ -13723,7 +13899,7 @@
         <v>0.1272469</v>
       </c>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>8.8160040000000005E-3</v>
       </c>
@@ -13761,7 +13937,7 @@
         <v>0.1264989</v>
       </c>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>8.0909729999999996E-3</v>
       </c>
@@ -13799,7 +13975,7 @@
         <v>0.123735</v>
       </c>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>7.1570870000000003E-3</v>
       </c>
@@ -13837,7 +14013,7 @@
         <v>0.12376</v>
       </c>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>8.5048680000000005E-3</v>
       </c>
@@ -13875,7 +14051,7 @@
         <v>0.14027500000000001</v>
       </c>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B101">
         <v>7.1988110000000003E-3</v>
       </c>
@@ -13913,7 +14089,7 @@
         <v>0.13251499999999999</v>
       </c>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B102">
         <v>7.6889990000000002E-3</v>
       </c>
@@ -13965,9 +14141,9 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -14005,7 +14181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -14058,7 +14234,7 @@
         <v>0.13271423199999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>1.2948039999999999E-2</v>
       </c>
@@ -14096,7 +14272,7 @@
         <v>0.12607789999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>1.149201E-2</v>
       </c>
@@ -14134,7 +14310,7 @@
         <v>0.127862</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>1.28839E-2</v>
       </c>
@@ -14172,7 +14348,7 @@
         <v>0.130769</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>1.152682E-2</v>
       </c>
@@ -14210,7 +14386,7 @@
         <v>0.1142251</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>1.1657000000000001E-2</v>
       </c>
@@ -14248,7 +14424,7 @@
         <v>0.13186500000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>1.2490029999999999E-2</v>
       </c>
@@ -14286,7 +14462,7 @@
         <v>0.12895699999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>1.219893E-2</v>
       </c>
@@ -14324,7 +14500,7 @@
         <v>0.15134310000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>1.309395E-2</v>
       </c>
@@ -14362,7 +14538,7 @@
         <v>0.13142699999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>1.059818E-2</v>
       </c>
@@ -14400,7 +14576,7 @@
         <v>0.13252710000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>1.0324949999999999E-2</v>
       </c>
@@ -14438,7 +14614,7 @@
         <v>0.1299651</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>9.7401139999999994E-3</v>
       </c>
@@ -14476,7 +14652,7 @@
         <v>0.13614490000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>9.1209410000000005E-3</v>
       </c>
@@ -14514,7 +14690,7 @@
         <v>0.132741</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>8.3880420000000001E-3</v>
       </c>
@@ -14552,7 +14728,7 @@
         <v>0.12853500000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>8.6650849999999995E-3</v>
       </c>
@@ -14590,7 +14766,7 @@
         <v>0.13581679999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>8.7280269999999993E-3</v>
       </c>
@@ -14628,7 +14804,7 @@
         <v>0.136435</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>9.0899469999999993E-3</v>
       </c>
@@ -14666,7 +14842,7 @@
         <v>0.1266949</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>8.4609990000000003E-3</v>
       </c>
@@ -14704,7 +14880,7 @@
         <v>0.12536410000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>9.4480510000000007E-3</v>
       </c>
@@ -14742,7 +14918,7 @@
         <v>0.1293571</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>9.8378660000000007E-3</v>
       </c>
@@ -14780,7 +14956,7 @@
         <v>0.12984989999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>8.8081359999999994E-3</v>
       </c>
@@ -14818,7 +14994,7 @@
         <v>0.13317580000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>8.8090900000000003E-3</v>
       </c>
@@ -14856,7 +15032,7 @@
         <v>0.12709899999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>8.5730549999999996E-3</v>
       </c>
@@ -14894,7 +15070,7 @@
         <v>0.12989310000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>8.8169570000000003E-3</v>
       </c>
@@ -14932,7 +15108,7 @@
         <v>0.13010099999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>9.2010500000000005E-3</v>
       </c>
@@ -14970,7 +15146,7 @@
         <v>0.13298489999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>8.6369510000000004E-3</v>
       </c>
@@ -15008,7 +15184,7 @@
         <v>0.15155389999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>9.8819730000000005E-3</v>
       </c>
@@ -15046,7 +15222,7 @@
         <v>0.14167689999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>9.8271369999999997E-3</v>
       </c>
@@ -15084,7 +15260,7 @@
         <v>0.13095000000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>8.8779930000000007E-3</v>
       </c>
@@ -15122,7 +15298,7 @@
         <v>0.14160590000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>9.7458360000000008E-3</v>
       </c>
@@ -15160,7 +15336,7 @@
         <v>0.13917209999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>9.0270039999999999E-3</v>
       </c>
@@ -15198,7 +15374,7 @@
         <v>0.138402</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>9.5400810000000006E-3</v>
       </c>
@@ -15236,7 +15412,7 @@
         <v>0.14217109999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>9.4850060000000007E-3</v>
       </c>
@@ -15274,7 +15450,7 @@
         <v>0.13961100000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>9.5560550000000008E-3</v>
       </c>
@@ -15312,7 +15488,7 @@
         <v>0.133853</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>1.0648970000000001E-2</v>
       </c>
@@ -15350,7 +15526,7 @@
         <v>0.13306000000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>7.2898859999999998E-3</v>
       </c>
@@ -15388,7 +15564,7 @@
         <v>0.13611699999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>8.8059899999999997E-3</v>
       </c>
@@ -15426,7 +15602,7 @@
         <v>0.1344979</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>8.5628030000000008E-3</v>
       </c>
@@ -15464,7 +15640,7 @@
         <v>0.13353989999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>1.03569E-2</v>
       </c>
@@ -15502,7 +15678,7 @@
         <v>0.1357131</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>1.009202E-2</v>
       </c>
@@ -15540,7 +15716,7 @@
         <v>0.133106</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>1.024508E-2</v>
       </c>
@@ -15578,7 +15754,7 @@
         <v>0.1355941</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>1.0316850000000001E-2</v>
       </c>
@@ -15616,7 +15792,7 @@
         <v>0.13891390000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>9.6220969999999996E-3</v>
       </c>
@@ -15654,7 +15830,7 @@
         <v>0.13478680000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>1.008701E-2</v>
       </c>
@@ -15692,7 +15868,7 @@
         <v>0.13292809999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>1.0540010000000001E-2</v>
       </c>
@@ -15730,7 +15906,7 @@
         <v>0.136157</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>1.0174040000000001E-2</v>
       </c>
@@ -15768,7 +15944,7 @@
         <v>0.1387951</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>9.8519330000000002E-3</v>
       </c>
@@ -15806,7 +15982,7 @@
         <v>0.13523479999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>9.5169539999999993E-3</v>
       </c>
@@ -15844,7 +16020,7 @@
         <v>0.134295</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>9.788036E-3</v>
       </c>
@@ -15882,7 +16058,7 @@
         <v>0.13222310000000001</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>9.9749569999999996E-3</v>
       </c>
@@ -15920,7 +16096,7 @@
         <v>0.1354158</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>9.8450180000000005E-3</v>
       </c>
@@ -15958,7 +16134,7 @@
         <v>0.13250519999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>1.017213E-2</v>
       </c>
@@ -15996,7 +16172,7 @@
         <v>0.13533519999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>1.005793E-2</v>
       </c>
@@ -16034,7 +16210,7 @@
         <v>0.13872409999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>1.069808E-2</v>
       </c>
@@ -16072,7 +16248,7 @@
         <v>0.13556000000000001</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>7.1189399999999998E-3</v>
       </c>
@@ -16110,7 +16286,7 @@
         <v>0.13424710000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>1.006699E-2</v>
       </c>
@@ -16148,7 +16324,7 @@
         <v>0.13397220000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>1.131105E-2</v>
       </c>
@@ -16186,7 +16362,7 @@
         <v>0.13714599999999999</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>1.063299E-2</v>
       </c>
@@ -16224,7 +16400,7 @@
         <v>0.13830519999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>8.6719989999999997E-3</v>
       </c>
@@ -16262,7 +16438,7 @@
         <v>0.13335900000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>1.323509E-2</v>
       </c>
@@ -16300,7 +16476,7 @@
         <v>0.13909820000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>1.335502E-2</v>
       </c>
@@ -16338,7 +16514,7 @@
         <v>0.13637299999999999</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>1.2709140000000001E-2</v>
       </c>
@@ -16376,7 +16552,7 @@
         <v>0.13083980000000001</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>1.2676949999999999E-2</v>
       </c>
@@ -16414,7 +16590,7 @@
         <v>0.14169619999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>1.157093E-2</v>
       </c>
@@ -16452,7 +16628,7 @@
         <v>0.13559789999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>1.266289E-2</v>
       </c>
@@ -16490,7 +16666,7 @@
         <v>0.1360431</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>1.3574839999999999E-2</v>
       </c>
@@ -16528,7 +16704,7 @@
         <v>0.1334391</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>1.1726139999999999E-2</v>
       </c>
@@ -16566,7 +16742,7 @@
         <v>0.1348481</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>1.293302E-2</v>
       </c>
@@ -16604,7 +16780,7 @@
         <v>0.13595489999999999</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>1.300406E-2</v>
       </c>
@@ -16642,7 +16818,7 @@
         <v>0.13353590000000001</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>1.308608E-2</v>
       </c>
@@ -16680,7 +16856,7 @@
         <v>0.1347489</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B72">
         <v>1.212192E-2</v>
       </c>
@@ -16718,7 +16894,7 @@
         <v>0.13967389999999999</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>1.243997E-2</v>
       </c>
@@ -16756,7 +16932,7 @@
         <v>0.13463620000000001</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>9.287834E-3</v>
       </c>
@@ -16794,7 +16970,7 @@
         <v>0.1349339</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>1.2764930000000001E-2</v>
       </c>
@@ -16832,7 +17008,7 @@
         <v>0.1357691</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>1.195097E-2</v>
       </c>
@@ -16870,7 +17046,7 @@
         <v>0.13975409999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>9.3898769999999996E-3</v>
       </c>
@@ -16908,7 +17084,7 @@
         <v>0.128967</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>1.213789E-2</v>
       </c>
@@ -16946,7 +17122,7 @@
         <v>0.13097</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B79">
         <v>1.237106E-2</v>
       </c>
@@ -16984,7 +17160,7 @@
         <v>0.12785289999999999</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>1.2818100000000001E-2</v>
       </c>
@@ -17022,7 +17198,7 @@
         <v>0.12802820000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B81">
         <v>8.8670250000000006E-3</v>
       </c>
@@ -17060,7 +17236,7 @@
         <v>0.126694</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B82">
         <v>1.1378050000000001E-2</v>
       </c>
@@ -17098,7 +17274,7 @@
         <v>0.1243551</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B83">
         <v>1.348281E-2</v>
       </c>
@@ -17136,7 +17312,7 @@
         <v>0.13353490000000001</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B84">
         <v>1.2537960000000001E-2</v>
       </c>
@@ -17174,7 +17350,7 @@
         <v>0.13090009999999999</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B85">
         <v>1.2181040000000001E-2</v>
       </c>
@@ -17212,7 +17388,7 @@
         <v>0.1248491</v>
       </c>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B86">
         <v>1.344919E-2</v>
       </c>
@@ -17250,7 +17426,7 @@
         <v>0.12979099999999999</v>
       </c>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B87">
         <v>1.2974019999999999E-2</v>
       </c>
@@ -17288,7 +17464,7 @@
         <v>0.12539700000000001</v>
       </c>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B88">
         <v>1.2045149999999999E-2</v>
       </c>
@@ -17326,7 +17502,7 @@
         <v>0.12476520000000001</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B89">
         <v>1.267195E-2</v>
       </c>
@@ -17364,7 +17540,7 @@
         <v>0.12576200000000001</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B90">
         <v>1.2851949999999999E-2</v>
       </c>
@@ -17402,7 +17578,7 @@
         <v>0.1273041</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B91">
         <v>9.7339149999999992E-3</v>
       </c>
@@ -17440,7 +17616,7 @@
         <v>0.12940289999999999</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>1.259303E-2</v>
       </c>
@@ -17478,7 +17654,7 @@
         <v>0.12586620000000001</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B93">
         <v>1.223516E-2</v>
       </c>
@@ -17516,7 +17692,7 @@
         <v>0.12576599999999999</v>
       </c>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B94">
         <v>9.0460780000000008E-3</v>
       </c>
@@ -17554,7 +17730,7 @@
         <v>0.127001</v>
       </c>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B95">
         <v>1.294994E-2</v>
       </c>
@@ -17592,7 +17768,7 @@
         <v>0.1274679</v>
       </c>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>1.1862040000000001E-2</v>
       </c>
@@ -17630,7 +17806,7 @@
         <v>0.12770300000000001</v>
       </c>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>8.2340239999999995E-3</v>
       </c>
@@ -17668,7 +17844,7 @@
         <v>0.127419</v>
       </c>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>1.293802E-2</v>
       </c>
@@ -17706,7 +17882,7 @@
         <v>0.1263659</v>
       </c>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>1.215696E-2</v>
       </c>
@@ -17744,7 +17920,7 @@
         <v>0.12670400000000001</v>
       </c>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>8.7039470000000001E-3</v>
       </c>
@@ -17782,7 +17958,7 @@
         <v>0.12797310000000001</v>
       </c>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B101">
         <v>1.265383E-2</v>
       </c>
@@ -17820,7 +17996,7 @@
         <v>0.1247959</v>
       </c>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B102">
         <v>1.275682E-2</v>
       </c>
@@ -17871,9 +18047,9 @@
       <selection activeCell="F30" sqref="A1:M102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -17911,7 +18087,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -17964,7 +18140,7 @@
         <v>0.13210137199999997</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>8.5208420000000007E-3</v>
       </c>
@@ -18002,7 +18178,7 @@
         <v>0.104548</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>8.5070130000000008E-3</v>
       </c>
@@ -18040,7 +18216,7 @@
         <v>0.1092799</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>8.5749629999999997E-3</v>
       </c>
@@ -18078,7 +18254,7 @@
         <v>0.113333</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>7.1840289999999998E-3</v>
       </c>
@@ -18116,7 +18292,7 @@
         <v>0.109973</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>7.9939369999999996E-3</v>
       </c>
@@ -18154,7 +18330,7 @@
         <v>0.1060469</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>7.1878430000000002E-3</v>
       </c>
@@ -18192,7 +18368,7 @@
         <v>0.1047339</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>6.7999360000000003E-3</v>
       </c>
@@ -18230,7 +18406,7 @@
         <v>0.1311109</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>6.5999029999999998E-3</v>
       </c>
@@ -18268,7 +18444,7 @@
         <v>0.13985710000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>7.251024E-3</v>
       </c>
@@ -18306,7 +18482,7 @@
         <v>0.12964890000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>6.9661139999999998E-3</v>
       </c>
@@ -18344,7 +18520,7 @@
         <v>0.13098879999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>6.7470070000000002E-3</v>
       </c>
@@ -18382,7 +18558,7 @@
         <v>0.13359499999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>6.9789889999999997E-3</v>
       </c>
@@ -18420,7 +18596,7 @@
         <v>0.13358400000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>7.3440069999999996E-3</v>
       </c>
@@ -18458,7 +18634,7 @@
         <v>0.132046</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>6.9651599999999998E-3</v>
       </c>
@@ -18496,7 +18672,7 @@
         <v>0.13293289999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>6.7601199999999997E-3</v>
       </c>
@@ -18534,7 +18710,7 @@
         <v>0.13073609999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>7.5929159999999999E-3</v>
       </c>
@@ -18572,7 +18748,7 @@
         <v>0.1306689</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>6.5300460000000003E-3</v>
       </c>
@@ -18610,7 +18786,7 @@
         <v>0.127774</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>6.5689090000000004E-3</v>
       </c>
@@ -18648,7 +18824,7 @@
         <v>0.13337209999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>7.1830749999999997E-3</v>
       </c>
@@ -18686,7 +18862,7 @@
         <v>0.1337111</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>7.4179169999999996E-3</v>
       </c>
@@ -18724,7 +18900,7 @@
         <v>0.1341541</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>7.496834E-3</v>
       </c>
@@ -18762,7 +18938,7 @@
         <v>0.13391110000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>6.8368910000000003E-3</v>
       </c>
@@ -18800,7 +18976,7 @@
         <v>0.1330829</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>7.2569849999999997E-3</v>
       </c>
@@ -18838,7 +19014,7 @@
         <v>0.13093089999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>7.0779320000000003E-3</v>
       </c>
@@ -18876,7 +19052,7 @@
         <v>0.12887879999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>7.107019E-3</v>
       </c>
@@ -18914,7 +19090,7 @@
         <v>0.14030690000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>7.5881480000000003E-3</v>
       </c>
@@ -18952,7 +19128,7 @@
         <v>0.13697409999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>6.5798760000000001E-3</v>
       </c>
@@ -18990,7 +19166,7 @@
         <v>0.14651610000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>6.4380169999999999E-3</v>
       </c>
@@ -19028,7 +19204,7 @@
         <v>0.16072610000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>7.3750020000000003E-3</v>
       </c>
@@ -19066,7 +19242,7 @@
         <v>0.14030390000000001</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>7.2631839999999998E-3</v>
       </c>
@@ -19104,7 +19280,7 @@
         <v>0.1450121</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>7.2929859999999996E-3</v>
       </c>
@@ -19142,7 +19318,7 @@
         <v>0.14517089999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>6.884098E-3</v>
       </c>
@@ -19180,7 +19356,7 @@
         <v>0.14430399999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>7.2069170000000002E-3</v>
       </c>
@@ -19218,7 +19394,7 @@
         <v>0.14147209999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>6.453037E-3</v>
       </c>
@@ -19256,7 +19432,7 @@
         <v>0.14376810000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>6.9839949999999998E-3</v>
       </c>
@@ -19294,7 +19470,7 @@
         <v>0.148371</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>6.5310000000000003E-3</v>
       </c>
@@ -19332,7 +19508,7 @@
         <v>0.14032700000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>7.3511599999999998E-3</v>
       </c>
@@ -19370,7 +19546,7 @@
         <v>0.14103099999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>7.2388649999999997E-3</v>
       </c>
@@ -19408,7 +19584,7 @@
         <v>0.14415</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>7.4658390000000002E-3</v>
       </c>
@@ -19446,7 +19622,7 @@
         <v>0.14111799999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>7.116079E-3</v>
       </c>
@@ -19484,7 +19660,7 @@
         <v>0.1406162</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>7.6909070000000003E-3</v>
       </c>
@@ -19522,7 +19698,7 @@
         <v>0.14020009999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>6.2530040000000004E-3</v>
       </c>
@@ -19560,7 +19736,7 @@
         <v>0.1428471</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>7.4820520000000003E-3</v>
       </c>
@@ -19598,7 +19774,7 @@
         <v>0.14011190000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>7.1399209999999996E-3</v>
       </c>
@@ -19636,7 +19812,7 @@
         <v>0.14185600000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>8.397102E-3</v>
       </c>
@@ -19674,7 +19850,7 @@
         <v>0.1412332</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>7.2388649999999997E-3</v>
       </c>
@@ -19712,7 +19888,7 @@
         <v>0.14360999999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>7.3277949999999998E-3</v>
       </c>
@@ -19750,7 +19926,7 @@
         <v>0.1424241</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>6.8669320000000001E-3</v>
       </c>
@@ -19788,7 +19964,7 @@
         <v>0.13712099999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>7.6110359999999998E-3</v>
       </c>
@@ -19826,7 +20002,7 @@
         <v>0.14136099999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>7.5731280000000002E-3</v>
       </c>
@@ -19864,7 +20040,7 @@
         <v>0.1413181</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>6.5469739999999997E-3</v>
       </c>
@@ -19902,7 +20078,7 @@
         <v>0.1409318</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>7.4620249999999997E-3</v>
       </c>
@@ -19940,7 +20116,7 @@
         <v>0.141124</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>7.6420309999999997E-3</v>
       </c>
@@ -19978,7 +20154,7 @@
         <v>0.13467290000000001</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>7.5559620000000003E-3</v>
       </c>
@@ -20016,7 +20192,7 @@
         <v>0.13420889999999999</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>7.0049760000000004E-3</v>
       </c>
@@ -20054,7 +20230,7 @@
         <v>0.13128690000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>7.6248649999999998E-3</v>
       </c>
@@ -20092,7 +20268,7 @@
         <v>0.1306341</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>7.2450639999999998E-3</v>
       </c>
@@ -20130,7 +20306,7 @@
         <v>0.13205500000000001</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>6.9560999999999998E-3</v>
       </c>
@@ -20168,7 +20344,7 @@
         <v>0.13067200000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>6.3321590000000004E-3</v>
       </c>
@@ -20206,7 +20382,7 @@
         <v>0.12850690000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>6.17981E-3</v>
       </c>
@@ -20244,7 +20420,7 @@
         <v>0.1287739</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>6.9770810000000004E-3</v>
       </c>
@@ -20282,7 +20458,7 @@
         <v>0.136683</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>7.1399209999999996E-3</v>
       </c>
@@ -20320,7 +20496,7 @@
         <v>0.13175300000000001</v>
       </c>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>6.6411500000000002E-3</v>
       </c>
@@ -20358,7 +20534,7 @@
         <v>0.13425709999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>7.7490809999999997E-3</v>
       </c>
@@ -20396,7 +20572,7 @@
         <v>0.1289699</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>6.2520500000000003E-3</v>
       </c>
@@ -20434,7 +20610,7 @@
         <v>0.13125709999999999</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>8.2409379999999997E-3</v>
       </c>
@@ -20472,7 +20648,7 @@
         <v>0.13176389999999999</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>8.6600779999999999E-3</v>
       </c>
@@ -20510,7 +20686,7 @@
         <v>0.1348171</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>9.0329650000000004E-3</v>
       </c>
@@ -20548,7 +20724,7 @@
         <v>0.13999510000000001</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>9.0408329999999999E-3</v>
       </c>
@@ -20586,7 +20762,7 @@
         <v>0.13877110000000001</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B72">
         <v>7.0350170000000002E-3</v>
       </c>
@@ -20624,7 +20800,7 @@
         <v>0.13933400000000001</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>8.4497930000000006E-3</v>
       </c>
@@ -20662,7 +20838,7 @@
         <v>0.13744690000000001</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>7.441044E-3</v>
       </c>
@@ -20700,7 +20876,7 @@
         <v>0.14139409999999999</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>7.0910449999999998E-3</v>
       </c>
@@ -20738,7 +20914,7 @@
         <v>0.1487629</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>7.8451630000000005E-3</v>
       </c>
@@ -20776,7 +20952,7 @@
         <v>0.140764</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>7.4241159999999997E-3</v>
       </c>
@@ -20814,7 +20990,7 @@
         <v>0.149925</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>7.7641009999999998E-3</v>
       </c>
@@ -20852,7 +21028,7 @@
         <v>0.14588590000000001</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B79">
         <v>8.5828299999999996E-3</v>
       </c>
@@ -20890,7 +21066,7 @@
         <v>0.14057900000000001</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>7.9839230000000004E-3</v>
       </c>
@@ -20928,7 +21104,7 @@
         <v>0.140343</v>
       </c>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B81">
         <v>8.5911749999999995E-3</v>
       </c>
@@ -20966,7 +21142,7 @@
         <v>0.14181489999999999</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B82">
         <v>8.0599780000000006E-3</v>
       </c>
@@ -21004,7 +21180,7 @@
         <v>0.14665700000000001</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B83">
         <v>8.2218650000000001E-3</v>
       </c>
@@ -21042,7 +21218,7 @@
         <v>0.12904099999999999</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B84">
         <v>7.7810290000000001E-3</v>
       </c>
@@ -21080,7 +21256,7 @@
         <v>0.127382</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B85">
         <v>8.3208080000000007E-3</v>
       </c>
@@ -21118,7 +21294,7 @@
         <v>0.12844510000000001</v>
       </c>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B86">
         <v>8.2280640000000002E-3</v>
       </c>
@@ -21156,7 +21332,7 @@
         <v>0.12640599999999999</v>
       </c>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B87">
         <v>8.2159039999999996E-3</v>
       </c>
@@ -21194,7 +21370,7 @@
         <v>0.1081681</v>
       </c>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B88">
         <v>8.5370540000000005E-3</v>
       </c>
@@ -21232,7 +21408,7 @@
         <v>0.1058559</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B89">
         <v>8.1441399999999994E-3</v>
       </c>
@@ -21270,7 +21446,7 @@
         <v>0.1055439</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B90">
         <v>8.4569450000000004E-3</v>
       </c>
@@ -21308,7 +21484,7 @@
         <v>0.11039499999999999</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B91">
         <v>7.7090259999999999E-3</v>
       </c>
@@ -21346,7 +21522,7 @@
         <v>0.120326</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>8.5408689999999995E-3</v>
       </c>
@@ -21384,7 +21560,7 @@
         <v>0.1283321</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B93">
         <v>8.2340239999999995E-3</v>
       </c>
@@ -21422,7 +21598,7 @@
         <v>0.1056449</v>
       </c>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B94">
         <v>7.585049E-3</v>
       </c>
@@ -21460,7 +21636,7 @@
         <v>0.1114352</v>
       </c>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B95">
         <v>8.3231929999999996E-3</v>
       </c>
@@ -21498,7 +21674,7 @@
         <v>0.13226199999999999</v>
       </c>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>8.2788470000000006E-3</v>
       </c>
@@ -21536,7 +21712,7 @@
         <v>0.1068709</v>
       </c>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>8.4609990000000003E-3</v>
       </c>
@@ -21574,7 +21750,7 @@
         <v>0.1085091</v>
       </c>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>8.4548000000000002E-3</v>
       </c>
@@ -21612,7 +21788,7 @@
         <v>0.11023810000000001</v>
       </c>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>7.7421670000000003E-3</v>
       </c>
@@ -21650,7 +21826,7 @@
         <v>0.11375399999999999</v>
       </c>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>8.1079010000000007E-3</v>
       </c>
@@ -21688,7 +21864,7 @@
         <v>0.12069009999999999</v>
       </c>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B101">
         <v>8.0189700000000003E-3</v>
       </c>
@@ -21726,7 +21902,7 @@
         <v>0.1290491</v>
       </c>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B102">
         <v>8.2800389999999995E-3</v>
       </c>
@@ -21777,9 +21953,9 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -21817,7 +21993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -21870,7 +22046,7 @@
         <v>0.13233573910000002</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>9.8729130000000005E-3</v>
       </c>
@@ -21908,7 +22084,7 @@
         <v>0.1293349</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>9.8290440000000003E-3</v>
       </c>
@@ -21946,7 +22122,7 @@
         <v>0.11177090000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>1.0952949999999999E-2</v>
       </c>
@@ -21984,7 +22160,7 @@
         <v>0.12603500000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>9.9270339999999995E-3</v>
       </c>
@@ -22022,7 +22198,7 @@
         <v>0.127496</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>9.5000269999999994E-3</v>
       </c>
@@ -22060,7 +22236,7 @@
         <v>0.12053990000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>9.5648769999999994E-3</v>
       </c>
@@ -22098,7 +22274,7 @@
         <v>0.130748</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>9.2999940000000007E-3</v>
       </c>
@@ -22136,7 +22312,7 @@
         <v>0.14363219999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>9.5541480000000002E-3</v>
       </c>
@@ -22174,7 +22350,7 @@
         <v>0.13348080000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>8.8710779999999993E-3</v>
       </c>
@@ -22212,7 +22388,7 @@
         <v>0.13433310000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>9.6139910000000006E-3</v>
       </c>
@@ -22250,7 +22426,7 @@
         <v>0.1336</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>9.1860290000000001E-3</v>
       </c>
@@ -22288,7 +22464,7 @@
         <v>0.132797</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>9.0889930000000001E-3</v>
       </c>
@@ -22326,7 +22502,7 @@
         <v>0.12844990000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>9.3619819999999996E-3</v>
       </c>
@@ -22364,7 +22540,7 @@
         <v>0.1286311</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>8.9221000000000005E-3</v>
       </c>
@@ -22402,7 +22578,7 @@
         <v>0.13669899999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>8.9399809999999996E-3</v>
       </c>
@@ -22440,7 +22616,7 @@
         <v>0.1342981</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>8.8210110000000001E-3</v>
       </c>
@@ -22478,7 +22654,7 @@
         <v>0.130775</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>9.0029240000000007E-3</v>
       </c>
@@ -22516,7 +22692,7 @@
         <v>0.1286051</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>8.8539120000000002E-3</v>
       </c>
@@ -22554,7 +22730,7 @@
         <v>0.1336021</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>9.3560220000000003E-3</v>
       </c>
@@ -22592,7 +22768,7 @@
         <v>0.12470100000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>8.7521079999999998E-3</v>
       </c>
@@ -22630,7 +22806,7 @@
         <v>0.13228110000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>8.2809930000000004E-3</v>
       </c>
@@ -22668,7 +22844,7 @@
         <v>0.132524</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>9.4621180000000003E-3</v>
       </c>
@@ -22706,7 +22882,7 @@
         <v>0.13436010000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>9.0110299999999997E-3</v>
       </c>
@@ -22744,7 +22920,7 @@
         <v>0.13286020000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>9.0968609999999995E-3</v>
       </c>
@@ -22782,7 +22958,7 @@
         <v>0.13256809999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>9.2868800000000008E-3</v>
       </c>
@@ -22820,7 +22996,7 @@
         <v>0.13384989999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>9.0060230000000002E-3</v>
       </c>
@@ -22858,7 +23034,7 @@
         <v>0.14394499999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>9.2999940000000007E-3</v>
       </c>
@@ -22896,7 +23072,7 @@
         <v>0.145288</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>8.4390639999999996E-3</v>
       </c>
@@ -22934,7 +23110,7 @@
         <v>0.14539099999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>9.4699859999999997E-3</v>
       </c>
@@ -22972,7 +23148,7 @@
         <v>0.145648</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>9.1269019999999992E-3</v>
       </c>
@@ -23010,7 +23186,7 @@
         <v>0.15423010000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>8.7101460000000002E-3</v>
       </c>
@@ -23048,7 +23224,7 @@
         <v>0.14373900000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>9.4530580000000003E-3</v>
       </c>
@@ -23086,7 +23262,7 @@
         <v>0.1423991</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>8.9600089999999997E-3</v>
       </c>
@@ -23124,7 +23300,7 @@
         <v>0.1268051</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>9.3328950000000008E-3</v>
       </c>
@@ -23162,7 +23338,7 @@
         <v>0.105628</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>8.8508130000000008E-3</v>
       </c>
@@ -23200,7 +23376,7 @@
         <v>0.1269391</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>8.9969639999999997E-3</v>
       </c>
@@ -23238,7 +23414,7 @@
         <v>0.1042218</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>9.2279909999999996E-3</v>
       </c>
@@ -23276,7 +23452,7 @@
         <v>0.10747909999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>9.5701220000000004E-3</v>
       </c>
@@ -23314,7 +23490,7 @@
         <v>0.13330910000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>1.0197879999999999E-2</v>
       </c>
@@ -23352,7 +23528,7 @@
         <v>0.1165149</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>1.085496E-2</v>
       </c>
@@ -23390,7 +23566,7 @@
         <v>0.1054399</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>1.003194E-2</v>
       </c>
@@ -23428,7 +23604,7 @@
         <v>0.1333811</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>1.080704E-2</v>
       </c>
@@ -23466,7 +23642,7 @@
         <v>0.13080410000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>9.7830299999999999E-3</v>
       </c>
@@ -23504,7 +23680,7 @@
         <v>0.109972</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>9.6509460000000005E-3</v>
       </c>
@@ -23542,7 +23718,7 @@
         <v>0.11215899999999999</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>9.4549660000000004E-3</v>
       </c>
@@ -23580,7 +23756,7 @@
         <v>0.117341</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>9.3820099999999997E-3</v>
       </c>
@@ -23618,7 +23794,7 @@
         <v>0.104645</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>1.007009E-2</v>
       </c>
@@ -23656,7 +23832,7 @@
         <v>0.13246179999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>6.9530010000000003E-3</v>
       </c>
@@ -23694,7 +23870,7 @@
         <v>0.1148102</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>1.014614E-2</v>
       </c>
@@ -23732,7 +23908,7 @@
         <v>0.1157451</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>9.5560550000000008E-3</v>
       </c>
@@ -23770,7 +23946,7 @@
         <v>0.1038082</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>8.1241130000000005E-3</v>
       </c>
@@ -23808,7 +23984,7 @@
         <v>0.1048381</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>1.0027889999999999E-2</v>
       </c>
@@ -23846,7 +24022,7 @@
         <v>0.105504</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>9.7429749999999992E-3</v>
       </c>
@@ -23884,7 +24060,7 @@
         <v>9.8563910000000005E-2</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>7.53808E-3</v>
       </c>
@@ -23922,7 +24098,7 @@
         <v>0.12860920000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>9.4509120000000005E-3</v>
       </c>
@@ -23960,7 +24136,7 @@
         <v>0.11013290000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>9.7348690000000002E-3</v>
       </c>
@@ -23998,7 +24174,7 @@
         <v>0.12667700000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>7.441998E-3</v>
       </c>
@@ -24036,7 +24212,7 @@
         <v>0.10285900000000001</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>1.0056020000000001E-2</v>
       </c>
@@ -24074,7 +24250,7 @@
         <v>0.1346099</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>1.0414120000000001E-2</v>
       </c>
@@ -24112,7 +24288,7 @@
         <v>0.13120699999999999</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>7.6580049999999998E-3</v>
       </c>
@@ -24150,7 +24326,7 @@
         <v>0.1293831</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>9.098053E-3</v>
       </c>
@@ -24188,7 +24364,7 @@
         <v>0.1348531</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>9.8009110000000007E-3</v>
       </c>
@@ -24226,7 +24402,7 @@
         <v>0.14129810000000001</v>
       </c>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>7.6429840000000002E-3</v>
       </c>
@@ -24264,7 +24440,7 @@
         <v>0.1403382</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>9.4339850000000006E-3</v>
       </c>
@@ -24302,7 +24478,7 @@
         <v>0.141151</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>9.6669200000000007E-3</v>
       </c>
@@ -24340,7 +24516,7 @@
         <v>0.15051200000000001</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>8.1069469999999998E-3</v>
       </c>
@@ -24378,7 +24554,7 @@
         <v>0.1396599</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>9.7520349999999992E-3</v>
       </c>
@@ -24416,7 +24592,7 @@
         <v>0.14106109999999999</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>9.4890589999999993E-3</v>
       </c>
@@ -24454,7 +24630,7 @@
         <v>0.13986899999999999</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>7.3471070000000003E-3</v>
       </c>
@@ -24492,7 +24668,7 @@
         <v>0.1426499</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B72">
         <v>1.3505939999999999E-2</v>
       </c>
@@ -24530,7 +24706,7 @@
         <v>0.1439559</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>9.7889899999999992E-3</v>
       </c>
@@ -24568,7 +24744,7 @@
         <v>0.13924690000000001</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>7.5631140000000001E-3</v>
       </c>
@@ -24606,7 +24782,7 @@
         <v>0.14396500000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>7.6808930000000003E-3</v>
       </c>
@@ -24644,7 +24820,7 @@
         <v>0.13814209999999999</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>9.2678069999999994E-3</v>
       </c>
@@ -24682,7 +24858,7 @@
         <v>0.13989399999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>9.4890589999999993E-3</v>
       </c>
@@ -24720,7 +24896,7 @@
         <v>0.142406</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>1.0190960000000001E-2</v>
       </c>
@@ -24758,7 +24934,7 @@
         <v>0.14305090000000001</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B79">
         <v>9.4711780000000002E-3</v>
       </c>
@@ -24796,7 +24972,7 @@
         <v>0.1420872</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>9.8910330000000005E-3</v>
       </c>
@@ -24834,7 +25010,7 @@
         <v>0.14713689999999999</v>
       </c>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B81">
         <v>8.1448549999999995E-3</v>
       </c>
@@ -24872,7 +25048,7 @@
         <v>0.1422939</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B82">
         <v>9.135008E-3</v>
       </c>
@@ -24910,7 +25086,7 @@
         <v>0.138104</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B83">
         <v>9.7219939999999994E-3</v>
       </c>
@@ -24948,7 +25124,7 @@
         <v>0.13082099999999999</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B84">
         <v>7.5130459999999998E-3</v>
       </c>
@@ -24986,7 +25162,7 @@
         <v>0.14415410000000001</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B85">
         <v>9.2751980000000001E-3</v>
       </c>
@@ -25024,7 +25200,7 @@
         <v>0.1505618</v>
       </c>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B86">
         <v>9.6421240000000002E-3</v>
       </c>
@@ -25062,7 +25238,7 @@
         <v>0.1347508</v>
       </c>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B87">
         <v>9.8578929999999995E-3</v>
       </c>
@@ -25100,7 +25276,7 @@
         <v>0.14521600000000001</v>
       </c>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B88">
         <v>7.4830060000000004E-3</v>
       </c>
@@ -25138,7 +25314,7 @@
         <v>0.13595889999999999</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B89">
         <v>9.9058150000000001E-3</v>
       </c>
@@ -25176,7 +25352,7 @@
         <v>0.1430168</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B90">
         <v>1.043606E-2</v>
       </c>
@@ -25214,7 +25390,7 @@
         <v>0.1448209</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B91">
         <v>9.4931129999999992E-3</v>
       </c>
@@ -25252,7 +25428,7 @@
         <v>0.14160800000000001</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>9.2399119999999994E-3</v>
       </c>
@@ -25290,7 +25466,7 @@
         <v>0.13858100000000001</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B93">
         <v>6.7729950000000004E-3</v>
       </c>
@@ -25328,7 +25504,7 @@
         <v>0.14534900000000001</v>
       </c>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B94">
         <v>7.5590609999999997E-3</v>
       </c>
@@ -25366,7 +25542,7 @@
         <v>0.14041500000000001</v>
       </c>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B95">
         <v>9.7470279999999996E-3</v>
       </c>
@@ -25404,7 +25580,7 @@
         <v>0.1462591</v>
       </c>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>7.7078340000000002E-3</v>
       </c>
@@ -25442,7 +25618,7 @@
         <v>0.14909220000000001</v>
       </c>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>1.029587E-2</v>
       </c>
@@ -25480,7 +25656,7 @@
         <v>0.13974310000000001</v>
       </c>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>9.7670559999999997E-3</v>
       </c>
@@ -25518,7 +25694,7 @@
         <v>0.14923910000000001</v>
       </c>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>7.3051449999999999E-3</v>
       </c>
@@ -25556,7 +25732,7 @@
         <v>0.14275879999999999</v>
       </c>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>1.0185960000000001E-2</v>
       </c>
@@ -25594,7 +25770,7 @@
         <v>0.14238600000000001</v>
       </c>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B101">
         <v>1.0169030000000001E-2</v>
       </c>
@@ -25632,7 +25808,7 @@
         <v>0.129077</v>
       </c>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B102">
         <v>8.1369879999999995E-3</v>
       </c>
@@ -25683,9 +25859,9 @@
       <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -25723,7 +25899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -25776,7 +25952,7 @@
         <v>0.13669702299999997</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>9.7169879999999993E-3</v>
       </c>
@@ -25814,7 +25990,7 @@
         <v>0.12889600000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>8.980989E-3</v>
       </c>
@@ -25852,7 +26028,7 @@
         <v>0.133409</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>8.7800029999999998E-3</v>
       </c>
@@ -25890,7 +26066,7 @@
         <v>0.10959289999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>9.1311929999999993E-3</v>
       </c>
@@ -25928,7 +26104,7 @@
         <v>0.1028941</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>8.4719659999999992E-3</v>
       </c>
@@ -25966,7 +26142,7 @@
         <v>0.13128709999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>8.1870559999999998E-3</v>
       </c>
@@ -26004,7 +26180,7 @@
         <v>0.13287689999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>8.2159039999999996E-3</v>
       </c>
@@ -26042,7 +26218,7 @@
         <v>0.15987609999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>8.5120200000000003E-3</v>
       </c>
@@ -26080,7 +26256,7 @@
         <v>0.12729190000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>6.9170000000000004E-3</v>
       </c>
@@ -26118,7 +26294,7 @@
         <v>0.1326599</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>8.0330369999999998E-3</v>
       </c>
@@ -26156,7 +26332,7 @@
         <v>0.13244890000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>7.4849130000000002E-3</v>
       </c>
@@ -26194,7 +26370,7 @@
         <v>0.12765499999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>8.6758140000000004E-3</v>
       </c>
@@ -26232,7 +26408,7 @@
         <v>0.13281490000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>8.5949900000000003E-3</v>
       </c>
@@ -26270,7 +26446,7 @@
         <v>0.12456490000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>7.2309970000000003E-3</v>
       </c>
@@ -26308,7 +26484,7 @@
         <v>0.13686390000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>7.9529289999999992E-3</v>
       </c>
@@ -26346,7 +26522,7 @@
         <v>0.1379309</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>6.7119600000000003E-3</v>
       </c>
@@ -26384,7 +26560,7 @@
         <v>0.13012099999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>8.1219670000000008E-3</v>
       </c>
@@ -26422,7 +26598,7 @@
         <v>0.12918589999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>7.4899199999999997E-3</v>
       </c>
@@ -26460,7 +26636,7 @@
         <v>0.13217709999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>8.4769730000000005E-3</v>
       </c>
@@ -26498,7 +26674,7 @@
         <v>0.12809609999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>6.9229599999999997E-3</v>
       </c>
@@ -26536,7 +26712,7 @@
         <v>0.12881780000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>7.2300430000000002E-3</v>
       </c>
@@ -26574,7 +26750,7 @@
         <v>0.1342361</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>8.3038810000000008E-3</v>
       </c>
@@ -26612,7 +26788,7 @@
         <v>0.13581109999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>9.0970990000000009E-3</v>
       </c>
@@ -26650,7 +26826,7 @@
         <v>0.14256720000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>7.8089240000000001E-3</v>
       </c>
@@ -26688,7 +26864,7 @@
         <v>0.14256189999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>8.2938669999999999E-3</v>
       </c>
@@ -26726,7 +26902,7 @@
         <v>0.14658189999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>8.7018010000000003E-3</v>
       </c>
@@ -26764,7 +26940,7 @@
         <v>0.14335390000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>7.089138E-3</v>
       </c>
@@ -26802,7 +26978,7 @@
         <v>0.16544010000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>8.4769730000000005E-3</v>
       </c>
@@ -26840,7 +27016,7 @@
         <v>0.14590719999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>7.2309970000000003E-3</v>
       </c>
@@ -26878,7 +27054,7 @@
         <v>0.14156289999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>8.5320469999999992E-3</v>
       </c>
@@ -26916,7 +27092,7 @@
         <v>0.144063</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>8.1601139999999996E-3</v>
       </c>
@@ -26954,7 +27130,7 @@
         <v>0.14471700000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>9.2818740000000007E-3</v>
       </c>
@@ -26992,7 +27168,7 @@
         <v>0.1449618</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>1.045012E-2</v>
       </c>
@@ -27030,7 +27206,7 @@
         <v>0.14440890000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>9.8659990000000003E-3</v>
       </c>
@@ -27068,7 +27244,7 @@
         <v>0.14024519999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>1.055908E-2</v>
       </c>
@@ -27106,7 +27282,7 @@
         <v>0.1463671</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>1.9351960000000001E-2</v>
       </c>
@@ -27144,7 +27320,7 @@
         <v>0.1426229</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>1.1235E-2</v>
       </c>
@@ -27182,7 +27358,7 @@
         <v>0.13897300000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>1.0486840000000001E-2</v>
       </c>
@@ -27220,7 +27396,7 @@
         <v>0.144263</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>1.068997E-2</v>
       </c>
@@ -27258,7 +27434,7 @@
         <v>0.141927</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>7.492065E-3</v>
       </c>
@@ -27296,7 +27472,7 @@
         <v>0.14332010000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>1.0741000000000001E-2</v>
       </c>
@@ -27334,7 +27510,7 @@
         <v>0.14224909999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>7.9691410000000008E-3</v>
       </c>
@@ -27372,7 +27548,7 @@
         <v>0.13838790000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>1.0126110000000001E-2</v>
       </c>
@@ -27410,7 +27586,7 @@
         <v>0.140239</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>7.99799E-3</v>
       </c>
@@ -27448,7 +27624,7 @@
         <v>0.1428151</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>9.9101069999999996E-3</v>
       </c>
@@ -27486,7 +27662,7 @@
         <v>0.14221909999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>1.014495E-2</v>
       </c>
@@ -27524,7 +27700,7 @@
         <v>0.1473429</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>7.1668620000000004E-3</v>
       </c>
@@ -27562,7 +27738,7 @@
         <v>0.14602399999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>9.8512170000000007E-3</v>
       </c>
@@ -27600,7 +27776,7 @@
         <v>0.1458189</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>7.5600149999999998E-3</v>
       </c>
@@ -27638,7 +27814,7 @@
         <v>0.14207600000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>9.8249909999999999E-3</v>
       </c>
@@ -27676,7 +27852,7 @@
         <v>0.14216609999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>7.2100159999999996E-3</v>
       </c>
@@ -27714,7 +27890,7 @@
         <v>0.14274980000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>9.7610949999999991E-3</v>
       </c>
@@ -27752,7 +27928,7 @@
         <v>0.14369989999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>7.1499349999999996E-3</v>
       </c>
@@ -27790,7 +27966,7 @@
         <v>0.1426289</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>7.1480270000000004E-3</v>
       </c>
@@ -27828,7 +28004,7 @@
         <v>0.13900019999999999</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>1.125598E-2</v>
       </c>
@@ -27866,7 +28042,7 @@
         <v>0.14183899999999999</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>7.3521139999999999E-3</v>
       </c>
@@ -27904,7 +28080,7 @@
         <v>0.1451721</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>8.2278249999999994E-3</v>
       </c>
@@ -27942,7 +28118,7 @@
         <v>0.1460321</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>7.232189E-3</v>
       </c>
@@ -27980,7 +28156,7 @@
         <v>0.13757610000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>1.111817E-2</v>
       </c>
@@ -28018,7 +28194,7 @@
         <v>0.1450891</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>7.3781009999999998E-3</v>
       </c>
@@ -28056,7 +28232,7 @@
         <v>0.13638210000000001</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>9.0250969999999993E-3</v>
       </c>
@@ -28094,7 +28270,7 @@
         <v>0.14124200000000001</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>8.0161090000000004E-3</v>
       </c>
@@ -28132,7 +28308,7 @@
         <v>0.13322999999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>8.410931E-3</v>
       </c>
@@ -28170,7 +28346,7 @@
         <v>0.12812709999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>1.1352060000000001E-2</v>
       </c>
@@ -28208,7 +28384,7 @@
         <v>0.12998799999999999</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>1.1734959999999999E-2</v>
       </c>
@@ -28246,7 +28422,7 @@
         <v>0.13028880000000001</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>1.174617E-2</v>
       </c>
@@ -28284,7 +28460,7 @@
         <v>0.13446</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>1.1909009999999999E-2</v>
       </c>
@@ -28322,7 +28498,7 @@
         <v>0.1285541</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>1.354909E-2</v>
       </c>
@@ -28360,7 +28536,7 @@
         <v>0.13120509999999999</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>1.183796E-2</v>
       </c>
@@ -28398,7 +28574,7 @@
         <v>0.13026209999999999</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B72">
         <v>1.3051989999999999E-2</v>
       </c>
@@ -28436,7 +28612,7 @@
         <v>0.131103</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>1.223397E-2</v>
       </c>
@@ -28474,7 +28650,7 @@
         <v>0.12820819999999999</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>1.1944059999999999E-2</v>
       </c>
@@ -28512,7 +28688,7 @@
         <v>0.13307910000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>1.199412E-2</v>
       </c>
@@ -28550,7 +28726,7 @@
         <v>0.1326389</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>1.2176040000000001E-2</v>
       </c>
@@ -28588,7 +28764,7 @@
         <v>0.13115499999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>1.178908E-2</v>
       </c>
@@ -28626,7 +28802,7 @@
         <v>0.13096189999999999</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>1.255393E-2</v>
       </c>
@@ -28664,7 +28840,7 @@
         <v>0.12872790000000001</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B79">
         <v>1.038504E-2</v>
       </c>
@@ -28702,7 +28878,7 @@
         <v>0.13341900000000001</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>1.0104180000000001E-2</v>
       </c>
@@ -28740,7 +28916,7 @@
         <v>0.13029099999999999</v>
       </c>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B81">
         <v>8.2190040000000002E-3</v>
       </c>
@@ -28778,7 +28954,7 @@
         <v>0.13164880000000001</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B82">
         <v>9.7339149999999992E-3</v>
       </c>
@@ -28816,7 +28992,7 @@
         <v>0.13508300000000001</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B83">
         <v>9.1540809999999997E-3</v>
       </c>
@@ -28854,7 +29030,7 @@
         <v>0.13330910000000001</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B84">
         <v>8.8829990000000008E-3</v>
       </c>
@@ -28892,7 +29068,7 @@
         <v>0.13115689999999999</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B85">
         <v>9.4721319999999994E-3</v>
       </c>
@@ -28930,7 +29106,7 @@
         <v>0.13028190000000001</v>
       </c>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B86">
         <v>9.125948E-3</v>
       </c>
@@ -28968,7 +29144,7 @@
         <v>0.13107089999999999</v>
       </c>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B87">
         <v>9.2921259999999995E-3</v>
       </c>
@@ -29006,7 +29182,7 @@
         <v>0.11942410000000001</v>
       </c>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B88">
         <v>8.3839889999999997E-3</v>
       </c>
@@ -29044,7 +29220,7 @@
         <v>0.12731190000000001</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B89">
         <v>9.5670219999999997E-3</v>
       </c>
@@ -29082,7 +29258,7 @@
         <v>0.1316271</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B90">
         <v>8.6390970000000001E-3</v>
       </c>
@@ -29120,7 +29296,7 @@
         <v>0.15007090000000001</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B91">
         <v>8.4729190000000006E-3</v>
       </c>
@@ -29158,7 +29334,7 @@
         <v>0.13208909999999999</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>8.7428090000000007E-3</v>
       </c>
@@ -29196,7 +29372,7 @@
         <v>0.14285300000000001</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B93">
         <v>7.5950619999999996E-3</v>
       </c>
@@ -29234,7 +29410,7 @@
         <v>0.1309121</v>
       </c>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B94">
         <v>9.5481869999999996E-3</v>
       </c>
@@ -29272,7 +29448,7 @@
         <v>0.142874</v>
       </c>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B95">
         <v>8.4288120000000008E-3</v>
       </c>
@@ -29310,7 +29486,7 @@
         <v>0.14102319999999999</v>
       </c>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>8.6188319999999999E-3</v>
       </c>
@@ -29348,7 +29524,7 @@
         <v>0.14032600000000001</v>
       </c>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>9.7579959999999997E-3</v>
       </c>
@@ -29386,7 +29562,7 @@
         <v>0.1443622</v>
       </c>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>7.414103E-3</v>
       </c>
@@ -29424,7 +29600,7 @@
         <v>0.1396191</v>
       </c>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>1.050711E-2</v>
       </c>
@@ -29462,7 +29638,7 @@
         <v>0.145237</v>
       </c>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>9.6509460000000005E-3</v>
       </c>
@@ -29500,7 +29676,7 @@
         <v>0.14153389999999999</v>
       </c>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B101">
         <v>9.1221329999999993E-3</v>
       </c>
@@ -29538,7 +29714,7 @@
         <v>0.13869000000000001</v>
       </c>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B102">
         <v>8.4538459999999992E-3</v>
       </c>
